--- a/共济失调.xlsx
+++ b/共济失调.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12405"/>
+    <workbookView windowWidth="28620" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535">
   <si>
     <t>基因</t>
   </si>
@@ -2552,6 +2552,2073 @@
   </si>
   <si>
     <t>TBL2</t>
+  </si>
+  <si>
+    <t>TSEN54</t>
+  </si>
+  <si>
+    <t>KIF7</t>
+  </si>
+  <si>
+    <t>PLEKHG4</t>
+  </si>
+  <si>
+    <t>RARS2</t>
+  </si>
+  <si>
+    <t>IFRD1</t>
+  </si>
+  <si>
+    <t>FAM126A</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>LIPT1</t>
+  </si>
+  <si>
+    <t>CSF1R</t>
+  </si>
+  <si>
+    <t>ACOX1</t>
+  </si>
+  <si>
+    <t>GPR56</t>
+  </si>
+  <si>
+    <t>ADCK3</t>
+  </si>
+  <si>
+    <t>SOD1</t>
+  </si>
+  <si>
+    <t>ARX</t>
+  </si>
+  <si>
+    <t>TSEN2</t>
+  </si>
+  <si>
+    <t>TSEN34</t>
+  </si>
+  <si>
+    <t>ERBB4</t>
+  </si>
+  <si>
+    <t>SLC25A1</t>
+  </si>
+  <si>
+    <t>ATAD1</t>
+  </si>
+  <si>
+    <t>LAGE3</t>
+  </si>
+  <si>
+    <t>NDUFA4</t>
+  </si>
+  <si>
+    <t>MRPS22</t>
+  </si>
+  <si>
+    <t>PODXL</t>
+  </si>
+  <si>
+    <t>CLIC5</t>
+  </si>
+  <si>
+    <t>MYO9A</t>
+  </si>
+  <si>
+    <t>TREM2</t>
+  </si>
+  <si>
+    <t>ABCA7</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>ESPN</t>
+  </si>
+  <si>
+    <t>PCK2</t>
+  </si>
+  <si>
+    <t>CHMP2B</t>
+  </si>
+  <si>
+    <t>EXOSC3</t>
+  </si>
+  <si>
+    <t>FUS</t>
+  </si>
+  <si>
+    <t>VAPB</t>
+  </si>
+  <si>
+    <t>FIG4</t>
+  </si>
+  <si>
+    <t>OPTN</t>
+  </si>
+  <si>
+    <t>PFN1</t>
+  </si>
+  <si>
+    <t>C10ORF2</t>
+  </si>
+  <si>
+    <t>TARDBP</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>PPARGC1A</t>
+  </si>
+  <si>
+    <t>DCTN1</t>
+  </si>
+  <si>
+    <t>HNRNPA1</t>
+  </si>
+  <si>
+    <t>DPYSL3</t>
+  </si>
+  <si>
+    <t>C9ORF72</t>
+  </si>
+  <si>
+    <t>UBQLN2</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>VCP</t>
+  </si>
+  <si>
+    <t>PON1</t>
+  </si>
+  <si>
+    <t>PON3</t>
+  </si>
+  <si>
+    <t>NEFH</t>
+  </si>
+  <si>
+    <t>PRPH</t>
+  </si>
+  <si>
+    <t>PON2</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>TAF15</t>
+  </si>
+  <si>
+    <t>COL4A1</t>
+  </si>
+  <si>
+    <t>KCNQ2</t>
+  </si>
+  <si>
+    <t>SPG20</t>
+  </si>
+  <si>
+    <t>PDSS2</t>
+  </si>
+  <si>
+    <t>TOP2A</t>
+  </si>
+  <si>
+    <t>FOXG1</t>
+  </si>
+  <si>
+    <t>ATP10A</t>
+  </si>
+  <si>
+    <t>EDN3</t>
+  </si>
+  <si>
+    <t>MYCN</t>
+  </si>
+  <si>
+    <t>PHOX2B</t>
+  </si>
+  <si>
+    <t>LIN28B</t>
+  </si>
+  <si>
+    <t>CYFIP1</t>
+  </si>
+  <si>
+    <t>SCO2</t>
+  </si>
+  <si>
+    <t>OCA2</t>
+  </si>
+  <si>
+    <t>TTC21B</t>
+  </si>
+  <si>
+    <t>SCA26</t>
+  </si>
+  <si>
+    <t>SCA20</t>
+  </si>
+  <si>
+    <t>SCA25</t>
+  </si>
+  <si>
+    <t>SCA30</t>
+  </si>
+  <si>
+    <t>SCA21</t>
+  </si>
+  <si>
+    <t>HSPD1</t>
+  </si>
+  <si>
+    <t>SLC25A12</t>
+  </si>
+  <si>
+    <t>SCP2</t>
+  </si>
+  <si>
+    <t>PQBP1</t>
+  </si>
+  <si>
+    <t>CASK</t>
+  </si>
+  <si>
+    <t>SOD2</t>
+  </si>
+  <si>
+    <t>DNM1L</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>UNC13D</t>
+  </si>
+  <si>
+    <t>STX11</t>
+  </si>
+  <si>
+    <t>STXBP2</t>
+  </si>
+  <si>
+    <t>MBP</t>
+  </si>
+  <si>
+    <t>ADRB1</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>ATRX</t>
+  </si>
+  <si>
+    <t>ADRB2</t>
+  </si>
+  <si>
+    <t>FOXC1</t>
+  </si>
+  <si>
+    <t>IL1A</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>LMNA</t>
+  </si>
+  <si>
+    <t>DPP6</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
+  <si>
+    <t>UNC13A</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>MYH7</t>
+  </si>
+  <si>
+    <t>SLC1A2</t>
+  </si>
+  <si>
+    <t>TNNT2</t>
+  </si>
+  <si>
+    <t>DLG3</t>
+  </si>
+  <si>
+    <t>MTHFR</t>
+  </si>
+  <si>
+    <t>TNNI3</t>
+  </si>
+  <si>
+    <t>AGTR2</t>
+  </si>
+  <si>
+    <t>IL1RAPL1</t>
+  </si>
+  <si>
+    <t>ACTC1</t>
+  </si>
+  <si>
+    <t>MYBPC3</t>
+  </si>
+  <si>
+    <t>NHP2</t>
+  </si>
+  <si>
+    <t>NOP10</t>
+  </si>
+  <si>
+    <t>WRAP53</t>
+  </si>
+  <si>
+    <t>GPX1</t>
+  </si>
+  <si>
+    <t>NPPA</t>
+  </si>
+  <si>
+    <t>NPPB</t>
+  </si>
+  <si>
+    <t>FASLG</t>
+  </si>
+  <si>
+    <t>MYH6</t>
+  </si>
+  <si>
+    <t>TMPO</t>
+  </si>
+  <si>
+    <t>ZNF674</t>
+  </si>
+  <si>
+    <t>FGD1</t>
+  </si>
+  <si>
+    <t>GSTP1</t>
+  </si>
+  <si>
+    <t>NR3C2</t>
+  </si>
+  <si>
+    <t>ATXN1L</t>
+  </si>
+  <si>
+    <t>TRIM32</t>
+  </si>
+  <si>
+    <t>IFNG</t>
+  </si>
+  <si>
+    <t>PTGS2</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>WDR62</t>
+  </si>
+  <si>
+    <t>GDI1</t>
+  </si>
+  <si>
+    <t>SLC22A5</t>
+  </si>
+  <si>
+    <t>ORC1</t>
+  </si>
+  <si>
+    <t>ZNF41</t>
+  </si>
+  <si>
+    <t>DYNC1H1</t>
+  </si>
+  <si>
+    <t>UPF3B</t>
+  </si>
+  <si>
+    <t>CAMK1G</t>
+  </si>
+  <si>
+    <t>NMNAT1</t>
+  </si>
+  <si>
+    <t>COQ9</t>
+  </si>
+  <si>
+    <t>CD36</t>
+  </si>
+  <si>
+    <t>MMAB</t>
+  </si>
+  <si>
+    <t>KIF2A</t>
+  </si>
+  <si>
+    <t>ZNF711</t>
+  </si>
+  <si>
+    <t>PDSS1</t>
+  </si>
+  <si>
+    <t>CXORF36</t>
+  </si>
+  <si>
+    <t>PLA2G4A</t>
+  </si>
+  <si>
+    <t>MIR17HG</t>
+  </si>
+  <si>
+    <t>KIF5C</t>
+  </si>
+  <si>
+    <t>RAB39B</t>
+  </si>
+  <si>
+    <t>GSR</t>
+  </si>
+  <si>
+    <t>PPARA</t>
+  </si>
+  <si>
+    <t>TUBG1</t>
+  </si>
+  <si>
+    <t>POMC</t>
+  </si>
+  <si>
+    <t>DBR1</t>
+  </si>
+  <si>
+    <t>CD40LG</t>
+  </si>
+  <si>
+    <t>ABRA</t>
+  </si>
+  <si>
+    <t>SCASI</t>
+  </si>
+  <si>
+    <t>LKMCD</t>
+  </si>
+  <si>
+    <t>RAC1</t>
+  </si>
+  <si>
+    <t>KIAA1279</t>
+  </si>
+  <si>
+    <t>RENBP</t>
+  </si>
+  <si>
+    <t>MRSS</t>
+  </si>
+  <si>
+    <t>SCAX2</t>
+  </si>
+  <si>
+    <t>EA3</t>
+  </si>
+  <si>
+    <t>SCA31</t>
+  </si>
+  <si>
+    <t>RBM17</t>
+  </si>
+  <si>
+    <t>SCAX4</t>
+  </si>
+  <si>
+    <t>FRDA2</t>
+  </si>
+  <si>
+    <t>MAOA</t>
+  </si>
+  <si>
+    <t>CLAM</t>
+  </si>
+  <si>
+    <t>SCAR7</t>
+  </si>
+  <si>
+    <t>SCA9</t>
+  </si>
+  <si>
+    <t>DPYD</t>
+  </si>
+  <si>
+    <t>SCA18</t>
+  </si>
+  <si>
+    <t>GFI1</t>
+  </si>
+  <si>
+    <t>NFE2L2</t>
+  </si>
+  <si>
+    <t>ITGB1</t>
+  </si>
+  <si>
+    <t>SOX3</t>
+  </si>
+  <si>
+    <t>CSF3</t>
+  </si>
+  <si>
+    <t>CHMRQ</t>
+  </si>
+  <si>
+    <t>EA7</t>
+  </si>
+  <si>
+    <t>SPP1</t>
+  </si>
+  <si>
+    <t>GPSC</t>
+  </si>
+  <si>
+    <t>CLA3</t>
+  </si>
+  <si>
+    <t>JAWAD</t>
+  </si>
+  <si>
+    <t>CSRNP1</t>
+  </si>
+  <si>
+    <t>SPAX3</t>
+  </si>
+  <si>
+    <t>EGR3</t>
+  </si>
+  <si>
+    <t>SCAX3</t>
+  </si>
+  <si>
+    <t>CACNA2D2</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>SCAR3</t>
+  </si>
+  <si>
+    <t>HMOX1</t>
+  </si>
+  <si>
+    <t>CEP63</t>
+  </si>
+  <si>
+    <t>TSC1</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>SAX1</t>
+  </si>
+  <si>
+    <t>SNAX1</t>
+  </si>
+  <si>
+    <t>RPL27A</t>
+  </si>
+  <si>
+    <t>BUB1B</t>
+  </si>
+  <si>
+    <t>GABRA4</t>
+  </si>
+  <si>
+    <t>SCAX5</t>
+  </si>
+  <si>
+    <t>ATP6AP2</t>
+  </si>
+  <si>
+    <t>STAMBP</t>
+  </si>
+  <si>
+    <t>CPAT1</t>
+  </si>
+  <si>
+    <t>SCA19</t>
+  </si>
+  <si>
+    <t>SCAR2</t>
+  </si>
+  <si>
+    <t>ALMS1</t>
+  </si>
+  <si>
+    <t>APOA1</t>
+  </si>
+  <si>
+    <t>SIK1</t>
+  </si>
+  <si>
+    <t>BBS2</t>
+  </si>
+  <si>
+    <t>ALS2</t>
+  </si>
+  <si>
+    <t>BBS7</t>
+  </si>
+  <si>
+    <t>BBS5</t>
+  </si>
+  <si>
+    <t>BBS10</t>
+  </si>
+  <si>
+    <t>BBS9</t>
+  </si>
+  <si>
+    <t>TBK1</t>
+  </si>
+  <si>
+    <t>KIF11</t>
+  </si>
+  <si>
+    <t>STON1</t>
+  </si>
+  <si>
+    <t>NEK1</t>
+  </si>
+  <si>
+    <t>PCDH12</t>
+  </si>
+  <si>
+    <t>AIMP1</t>
+  </si>
+  <si>
+    <t>RBBP8</t>
+  </si>
+  <si>
+    <t>TUBGCP6</t>
+  </si>
+  <si>
+    <t>TTC8</t>
+  </si>
+  <si>
+    <t>WDPCP</t>
+  </si>
+  <si>
+    <t>LZTFL1</t>
+  </si>
+  <si>
+    <t>DPM2</t>
+  </si>
+  <si>
+    <t>DDOST</t>
+  </si>
+  <si>
+    <t>DOLK</t>
+  </si>
+  <si>
+    <t>COG6</t>
+  </si>
+  <si>
+    <t>COG1</t>
+  </si>
+  <si>
+    <t>B4GALT1</t>
+  </si>
+  <si>
+    <t>ALG12</t>
+  </si>
+  <si>
+    <t>TMEM165</t>
+  </si>
+  <si>
+    <t>MAGT1</t>
+  </si>
+  <si>
+    <t>MOGS</t>
+  </si>
+  <si>
+    <t>DPM3</t>
+  </si>
+  <si>
+    <t>ALG13</t>
+  </si>
+  <si>
+    <t>PGM1</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>ALG9</t>
+  </si>
+  <si>
+    <t>ALG11</t>
+  </si>
+  <si>
+    <t>MGAT2</t>
+  </si>
+  <si>
+    <t>TUSC3</t>
+  </si>
+  <si>
+    <t>SRD5A3</t>
+  </si>
+  <si>
+    <t>ALG8</t>
+  </si>
+  <si>
+    <t>SLC35C1</t>
+  </si>
+  <si>
+    <t>ALG3</t>
+  </si>
+  <si>
+    <t>ALG1</t>
+  </si>
+  <si>
+    <t>COG7</t>
+  </si>
+  <si>
+    <t>BBIP1</t>
+  </si>
+  <si>
+    <t>BCAT2</t>
+  </si>
+  <si>
+    <t>CTLA4</t>
+  </si>
+  <si>
+    <t>MYO9B</t>
+  </si>
+  <si>
+    <t>IL21</t>
+  </si>
+  <si>
+    <t>TGM2</t>
+  </si>
+  <si>
+    <t>SH2B3</t>
+  </si>
+  <si>
+    <t>NTRK1</t>
+  </si>
+  <si>
+    <t>HLA-DPB1</t>
+  </si>
+  <si>
+    <t>CD80</t>
+  </si>
+  <si>
+    <t>BACH2</t>
+  </si>
+  <si>
+    <t>CCR4</t>
+  </si>
+  <si>
+    <t>ICOSLG</t>
+  </si>
+  <si>
+    <t>RUNX3</t>
+  </si>
+  <si>
+    <t>ETS1</t>
+  </si>
+  <si>
+    <t>ZMIZ1</t>
+  </si>
+  <si>
+    <t>TNFSF10</t>
+  </si>
+  <si>
+    <t>TNFRSF14</t>
+  </si>
+  <si>
+    <t>THEMIS</t>
+  </si>
+  <si>
+    <t>CDKN2A</t>
+  </si>
+  <si>
+    <t>ABCB1</t>
+  </si>
+  <si>
+    <t>MYC</t>
+  </si>
+  <si>
+    <t>CELIAC2</t>
+  </si>
+  <si>
+    <t>RASSF5</t>
+  </si>
+  <si>
+    <t>NRAS</t>
+  </si>
+  <si>
+    <t>CHD6</t>
+  </si>
+  <si>
+    <t>PTPN11</t>
+  </si>
+  <si>
+    <t>NTRK2</t>
+  </si>
+  <si>
+    <t>AURKA</t>
+  </si>
+  <si>
+    <t>NRXN1</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>HGF</t>
+  </si>
+  <si>
+    <t>GNAS</t>
+  </si>
+  <si>
+    <t>NNAT</t>
+  </si>
+  <si>
+    <t>ARID1A</t>
+  </si>
+  <si>
+    <t>PINK1</t>
+  </si>
+  <si>
+    <t>SLTM</t>
+  </si>
+  <si>
+    <t>ANCR</t>
+  </si>
+  <si>
+    <t>BCHE</t>
+  </si>
+  <si>
+    <t>SEMA3B</t>
+  </si>
+  <si>
+    <t>ARID1B</t>
+  </si>
+  <si>
+    <t>IFNB1</t>
+  </si>
+  <si>
+    <t>CELIAC9</t>
+  </si>
+  <si>
+    <t>CELIAC11</t>
+  </si>
+  <si>
+    <t>ND3</t>
+  </si>
+  <si>
+    <t>CELIAC13</t>
+  </si>
+  <si>
+    <t>MRXSL</t>
+  </si>
+  <si>
+    <t>NBLST6</t>
+  </si>
+  <si>
+    <t>CELIAC5</t>
+  </si>
+  <si>
+    <t>HDL3</t>
+  </si>
+  <si>
+    <t>CELIAC7</t>
+  </si>
+  <si>
+    <t>PRICKLE2</t>
+  </si>
+  <si>
+    <t>CELIAC8</t>
+  </si>
+  <si>
+    <t>CHEK2</t>
+  </si>
+  <si>
+    <t>NBLST4</t>
+  </si>
+  <si>
+    <t>DWS</t>
+  </si>
+  <si>
+    <t>NBLST5</t>
+  </si>
+  <si>
+    <t>CLN9</t>
+  </si>
+  <si>
+    <t>CELIAC12</t>
+  </si>
+  <si>
+    <t>CELIAC6</t>
+  </si>
+  <si>
+    <t>CELIAC10</t>
+  </si>
+  <si>
+    <t>IFNK</t>
+  </si>
+  <si>
+    <t>TRNAP22P</t>
+  </si>
+  <si>
+    <t>LRRTM1</t>
+  </si>
+  <si>
+    <t>FAM196A</t>
+  </si>
+  <si>
+    <t>KCNS3</t>
+  </si>
+  <si>
+    <t>ICAM1</t>
+  </si>
+  <si>
+    <t>RNF14</t>
+  </si>
+  <si>
+    <t>PPIHP2</t>
+  </si>
+  <si>
+    <t>DDX6P2</t>
+  </si>
+  <si>
+    <t>PDZRN4</t>
+  </si>
+  <si>
+    <t>KRT18P32</t>
+  </si>
+  <si>
+    <t>ZNF746</t>
+  </si>
+  <si>
+    <t>KIFAP3</t>
+  </si>
+  <si>
+    <t>MOB3B</t>
+  </si>
+  <si>
+    <t>C5ORF22</t>
+  </si>
+  <si>
+    <t>CALM2P1</t>
+  </si>
+  <si>
+    <t>FLJ20021</t>
+  </si>
+  <si>
+    <t>ACTBP2</t>
+  </si>
+  <si>
+    <t>ZIK1P1</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>CNTN4</t>
+  </si>
+  <si>
+    <t>RPS15AP3</t>
+  </si>
+  <si>
+    <t>RPL7P55</t>
+  </si>
+  <si>
+    <t>DISC1</t>
+  </si>
+  <si>
+    <t>B4GALT6</t>
+  </si>
+  <si>
+    <t>ITPR2</t>
+  </si>
+  <si>
+    <t>SHROOM3</t>
+  </si>
+  <si>
+    <t>PDE4B</t>
+  </si>
+  <si>
+    <t>ZFP64</t>
+  </si>
+  <si>
+    <t>SCN7A</t>
+  </si>
+  <si>
+    <t>AKAP13</t>
+  </si>
+  <si>
+    <t>LIPC</t>
+  </si>
+  <si>
+    <t>SLC39A11</t>
+  </si>
+  <si>
+    <t>SATL1</t>
+  </si>
+  <si>
+    <t>NT5C1A</t>
+  </si>
+  <si>
+    <t>SUSD1</t>
+  </si>
+  <si>
+    <t>RBMS1</t>
+  </si>
+  <si>
+    <t>POLH</t>
+  </si>
+  <si>
+    <t>HLA-DRB1</t>
+  </si>
+  <si>
+    <t>FOXF2</t>
+  </si>
+  <si>
+    <t>IL2</t>
+  </si>
+  <si>
+    <t>KCNMA1</t>
+  </si>
+  <si>
+    <t>CUBN</t>
+  </si>
+  <si>
+    <t>CYBA</t>
+  </si>
+  <si>
+    <t>LAMA2</t>
+  </si>
+  <si>
+    <t>GP1BA</t>
+  </si>
+  <si>
+    <t>DLEU7</t>
+  </si>
+  <si>
+    <t>GNAL</t>
+  </si>
+  <si>
+    <t>HS3ST3A1</t>
+  </si>
+  <si>
+    <t>RPA4</t>
+  </si>
+  <si>
+    <t>PNPT1</t>
+  </si>
+  <si>
+    <t>KRT18P16</t>
+  </si>
+  <si>
+    <t>STAG2</t>
+  </si>
+  <si>
+    <t>AGBL4</t>
+  </si>
+  <si>
+    <t>SLC1A7</t>
+  </si>
+  <si>
+    <t>ZNF385B</t>
+  </si>
+  <si>
+    <t>RASGRF1</t>
+  </si>
+  <si>
+    <t>HCCAT5</t>
+  </si>
+  <si>
+    <t>CYCSP40</t>
+  </si>
+  <si>
+    <t>HAS2-AS1</t>
+  </si>
+  <si>
+    <t>RBFOX1</t>
+  </si>
+  <si>
+    <t>CDH10</t>
+  </si>
+  <si>
+    <t>NKRF</t>
+  </si>
+  <si>
+    <t>TOX3</t>
+  </si>
+  <si>
+    <t>ADAMTS16</t>
+  </si>
+  <si>
+    <t>RPL12P10</t>
+  </si>
+  <si>
+    <t>RPL9P5</t>
+  </si>
+  <si>
+    <t>GRIK2</t>
+  </si>
+  <si>
+    <t>UPF3A</t>
+  </si>
+  <si>
+    <t>LRRC4</t>
+  </si>
+  <si>
+    <t>POF1B</t>
+  </si>
+  <si>
+    <t>AGT</t>
+  </si>
+  <si>
+    <t>SIPA1L2</t>
+  </si>
+  <si>
+    <t>RD3</t>
+  </si>
+  <si>
+    <t>PKHD1</t>
+  </si>
+  <si>
+    <t>RNF144A</t>
+  </si>
+  <si>
+    <t>RBMS2</t>
+  </si>
+  <si>
+    <t>ERDA1</t>
+  </si>
+  <si>
+    <t>TIAM1</t>
+  </si>
+  <si>
+    <t>MSX2</t>
+  </si>
+  <si>
+    <t>YWHAZ</t>
+  </si>
+  <si>
+    <t>PGBD3P3</t>
+  </si>
+  <si>
+    <t>RPL12P34</t>
+  </si>
+  <si>
+    <t>OTOA</t>
+  </si>
+  <si>
+    <t>ATP6AP1L</t>
+  </si>
+  <si>
+    <t>FHDC1</t>
+  </si>
+  <si>
+    <t>MAP3K8</t>
+  </si>
+  <si>
+    <t>C5ORF38</t>
+  </si>
+  <si>
+    <t>RPS23P4</t>
+  </si>
+  <si>
+    <t>ELAVL2</t>
+  </si>
+  <si>
+    <t>FAM9B</t>
+  </si>
+  <si>
+    <t>DLGAP1</t>
+  </si>
+  <si>
+    <t>GRIN2B</t>
+  </si>
+  <si>
+    <t>ADAMTS14</t>
+  </si>
+  <si>
+    <t>SRGAP2</t>
+  </si>
+  <si>
+    <t>MPZL1</t>
+  </si>
+  <si>
+    <t>TPI1P2</t>
+  </si>
+  <si>
+    <t>NOX4</t>
+  </si>
+  <si>
+    <t>DPH6</t>
+  </si>
+  <si>
+    <t>BAG3</t>
+  </si>
+  <si>
+    <t>CDCA7</t>
+  </si>
+  <si>
+    <t>RPL7AP27</t>
+  </si>
+  <si>
+    <t>EPB41L3</t>
+  </si>
+  <si>
+    <t>LCN1P1</t>
+  </si>
+  <si>
+    <t>EOMES</t>
+  </si>
+  <si>
+    <t>GRIN2A</t>
+  </si>
+  <si>
+    <t>RUFY1</t>
+  </si>
+  <si>
+    <t>RALB</t>
+  </si>
+  <si>
+    <t>RPL23AP54</t>
+  </si>
+  <si>
+    <t>RPL24P9</t>
+  </si>
+  <si>
+    <t>GAPDHP66</t>
+  </si>
+  <si>
+    <t>SEMA6A</t>
+  </si>
+  <si>
+    <t>EFEMP1</t>
+  </si>
+  <si>
+    <t>C4ORF36</t>
+  </si>
+  <si>
+    <t>SSPO</t>
+  </si>
+  <si>
+    <t>CLNK</t>
+  </si>
+  <si>
+    <t>SLCO4A1</t>
+  </si>
+  <si>
+    <t>IL1RAPL2</t>
+  </si>
+  <si>
+    <t>MYLIP</t>
+  </si>
+  <si>
+    <t>FAM19A5</t>
+  </si>
+  <si>
+    <t>RPL9P23</t>
+  </si>
+  <si>
+    <t>OLFM4</t>
+  </si>
+  <si>
+    <t>C1ORF115</t>
+  </si>
+  <si>
+    <t>AK4</t>
+  </si>
+  <si>
+    <t>TNFSF11</t>
+  </si>
+  <si>
+    <t>EEF1A1P22</t>
+  </si>
+  <si>
+    <t>NCAM2</t>
+  </si>
+  <si>
+    <t>TNFSF13B</t>
+  </si>
+  <si>
+    <t>SELPLG</t>
+  </si>
+  <si>
+    <t>TSHZ3</t>
+  </si>
+  <si>
+    <t>COMMD10</t>
+  </si>
+  <si>
+    <t>HNRNPA1P26</t>
+  </si>
+  <si>
+    <t>NPBWR1</t>
+  </si>
+  <si>
+    <t>RPS26P5</t>
+  </si>
+  <si>
+    <t>SPTB</t>
+  </si>
+  <si>
+    <t>CYP1B1-AS1</t>
+  </si>
+  <si>
+    <t>BTBD11</t>
+  </si>
+  <si>
+    <t>ARSG</t>
+  </si>
+  <si>
+    <t>SHB</t>
+  </si>
+  <si>
+    <t>GVINP1</t>
+  </si>
+  <si>
+    <t>BCAS1</t>
+  </si>
+  <si>
+    <t>RPL5P10</t>
+  </si>
+  <si>
+    <t>TCEA1</t>
+  </si>
+  <si>
+    <t>CXORF27</t>
+  </si>
+  <si>
+    <t>KCNIP4</t>
+  </si>
+  <si>
+    <t>PDE10A</t>
+  </si>
+  <si>
+    <t>RPL19P8</t>
+  </si>
+  <si>
+    <t>RPL12P11</t>
+  </si>
+  <si>
+    <t>RPL7AP44</t>
+  </si>
+  <si>
+    <t>CHRM2</t>
+  </si>
+  <si>
+    <t>TMC3</t>
+  </si>
+  <si>
+    <t>MECOM</t>
+  </si>
+  <si>
+    <t>MAPRE1P1</t>
+  </si>
+  <si>
+    <t>C14ORF64</t>
+  </si>
+  <si>
+    <t>CD1E</t>
+  </si>
+  <si>
+    <t>CSNK1G3</t>
+  </si>
+  <si>
+    <t>INTS4</t>
+  </si>
+  <si>
+    <t>SRGAP3</t>
+  </si>
+  <si>
+    <t>GUCY2EP</t>
+  </si>
+  <si>
+    <t>DEFB112</t>
+  </si>
+  <si>
+    <t>OR52K3P</t>
+  </si>
+  <si>
+    <t>RPL23AP16</t>
+  </si>
+  <si>
+    <t>HAAO</t>
+  </si>
+  <si>
+    <t>GUCD1</t>
+  </si>
+  <si>
+    <t>TAB3</t>
+  </si>
+  <si>
+    <t>ZNF496</t>
+  </si>
+  <si>
+    <t>ELF5</t>
+  </si>
+  <si>
+    <t>ASS1P13</t>
+  </si>
+  <si>
+    <t>CNDP1</t>
+  </si>
+  <si>
+    <t>PEX11A</t>
+  </si>
+  <si>
+    <t>RPS29P10</t>
+  </si>
+  <si>
+    <t>IMPDH1P2</t>
+  </si>
+  <si>
+    <t>SHISA2</t>
+  </si>
+  <si>
+    <t>RPL32P12</t>
+  </si>
+  <si>
+    <t>MORN2</t>
+  </si>
+  <si>
+    <t>VN1R95P</t>
+  </si>
+  <si>
+    <t>CDC5L</t>
+  </si>
+  <si>
+    <t>SERPINA3</t>
+  </si>
+  <si>
+    <t>FABP2</t>
+  </si>
+  <si>
+    <t>ESR2</t>
+  </si>
+  <si>
+    <t>JRKL</t>
+  </si>
+  <si>
+    <t>EIF4A1P7</t>
+  </si>
+  <si>
+    <t>FMN2</t>
+  </si>
+  <si>
+    <t>RPL7P40</t>
+  </si>
+  <si>
+    <t>WDR93</t>
+  </si>
+  <si>
+    <t>RPL34P11</t>
+  </si>
+  <si>
+    <t>SAR1AP4</t>
+  </si>
+  <si>
+    <t>C2CD4A</t>
+  </si>
+  <si>
+    <t>ZBTB17</t>
+  </si>
+  <si>
+    <t>PER4</t>
+  </si>
+  <si>
+    <t>KLF3</t>
+  </si>
+  <si>
+    <t>DARS</t>
+  </si>
+  <si>
+    <t>EPHA3</t>
+  </si>
+  <si>
+    <t>TAGAP</t>
+  </si>
+  <si>
+    <t>LPP</t>
+  </si>
+  <si>
+    <t>ICOS</t>
+  </si>
+  <si>
+    <t>IL18RAP</t>
+  </si>
+  <si>
+    <t>CXCR4</t>
+  </si>
+  <si>
+    <t>IL1RL1</t>
+  </si>
+  <si>
+    <t>CCR3</t>
+  </si>
+  <si>
+    <t>KIAA1109</t>
+  </si>
+  <si>
+    <t>SLC24A3</t>
+  </si>
+  <si>
+    <t>ELMO1</t>
+  </si>
+  <si>
+    <t>PLEK</t>
+  </si>
+  <si>
+    <t>PTPN2</t>
+  </si>
+  <si>
+    <t>YDJC</t>
+  </si>
+  <si>
+    <t>MMEL1</t>
+  </si>
+  <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>CD28</t>
+  </si>
+  <si>
+    <t>LMO1</t>
+  </si>
+  <si>
+    <t>UBE2E3</t>
+  </si>
+  <si>
+    <t>RALYL</t>
+  </si>
+  <si>
+    <t>NFIA</t>
+  </si>
+  <si>
+    <t>GRK5</t>
+  </si>
+  <si>
+    <t>NUP153</t>
+  </si>
+  <si>
+    <t>RGS21</t>
+  </si>
+  <si>
+    <t>PARK7</t>
+  </si>
+  <si>
+    <t>TLR8</t>
+  </si>
+  <si>
+    <t>SUCLA2P2</t>
+  </si>
+  <si>
+    <t>RPS2P19</t>
+  </si>
+  <si>
+    <t>ZNF184</t>
+  </si>
+  <si>
+    <t>RGS1</t>
+  </si>
+  <si>
+    <t>ADAD1</t>
+  </si>
+  <si>
+    <t>LRRC30</t>
+  </si>
+  <si>
+    <t>CD247</t>
+  </si>
+  <si>
+    <t>NT5C3AP1</t>
+  </si>
+  <si>
+    <t>R3HDM1</t>
+  </si>
+  <si>
+    <t>IL18R1</t>
+  </si>
+  <si>
+    <t>RPSAP35</t>
+  </si>
+  <si>
+    <t>FRMD4B</t>
+  </si>
+  <si>
+    <t>ZFP36L1</t>
+  </si>
+  <si>
+    <t>HSD17B12</t>
+  </si>
+  <si>
+    <t>SOCS1</t>
+  </si>
+  <si>
+    <t>CLEC16A</t>
+  </si>
+  <si>
+    <t>ARHGAP31</t>
+  </si>
+  <si>
+    <t>TNFSF18</t>
+  </si>
+  <si>
+    <t>POGLUT1</t>
+  </si>
+  <si>
+    <t>IRF4</t>
+  </si>
+  <si>
+    <t>CIITA</t>
+  </si>
+  <si>
+    <t>MAP3K7</t>
+  </si>
+  <si>
+    <t>UBE2L3</t>
+  </si>
+  <si>
+    <t>AHSA2</t>
+  </si>
+  <si>
+    <t>PUS10</t>
+  </si>
+  <si>
+    <t>ITGA4</t>
+  </si>
+  <si>
+    <t>MICU3</t>
+  </si>
+  <si>
+    <t>MBL2</t>
+  </si>
+  <si>
+    <t>DUSP22</t>
+  </si>
+  <si>
+    <t>CCR9</t>
+  </si>
+  <si>
+    <t>SLC8A1</t>
+  </si>
+  <si>
+    <t>TBX5</t>
+  </si>
+  <si>
+    <t>SSTR2</t>
+  </si>
+  <si>
+    <t>ZRANB3</t>
+  </si>
+  <si>
+    <t>LCT</t>
+  </si>
+  <si>
+    <t>TNFRSF9</t>
+  </si>
+  <si>
+    <t>GRB2</t>
+  </si>
+  <si>
+    <t>HNRNPA1P4</t>
+  </si>
+  <si>
+    <t>HSPE1P1</t>
+  </si>
+  <si>
+    <t>TIPARP</t>
+  </si>
+  <si>
+    <t>HLA-DRA</t>
+  </si>
+  <si>
+    <t>SCP2D1</t>
+  </si>
+  <si>
+    <t>WNT3</t>
+  </si>
+  <si>
+    <t>TCF12</t>
+  </si>
+  <si>
+    <t>IL6R</t>
+  </si>
+  <si>
+    <t>MYNN</t>
+  </si>
+  <si>
+    <t>C1ORF94</t>
+  </si>
+  <si>
+    <t>IL9RP2</t>
+  </si>
+  <si>
+    <t>XCR1</t>
+  </si>
+  <si>
+    <t>SCHIP1</t>
+  </si>
+  <si>
+    <t>IL1RL2</t>
+  </si>
+  <si>
+    <t>PRND</t>
+  </si>
+  <si>
+    <t>MROH3P</t>
+  </si>
+  <si>
+    <t>DEPDC1P1</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>CCR2</t>
+  </si>
+  <si>
+    <t>ANK2</t>
+  </si>
+  <si>
+    <t>HCG26</t>
+  </si>
+  <si>
+    <t>RPL21P28</t>
+  </si>
+  <si>
+    <t>NFKBIZ</t>
+  </si>
+  <si>
+    <t>RWDD3</t>
+  </si>
+  <si>
+    <t>MRPS17P5</t>
+  </si>
+  <si>
+    <t>P2RY2</t>
+  </si>
+  <si>
+    <t>MICA</t>
+  </si>
+  <si>
+    <t>GPRC5A</t>
+  </si>
+  <si>
+    <t>P2RY12</t>
+  </si>
+  <si>
+    <t>OLIG3</t>
+  </si>
+  <si>
+    <t>CYYR1</t>
+  </si>
+  <si>
+    <t>RPL23AP46</t>
+  </si>
+  <si>
+    <t>RPL15P22</t>
+  </si>
+  <si>
+    <t>PRM1</t>
+  </si>
+  <si>
+    <t>KIAA1841</t>
+  </si>
+  <si>
+    <t>SGCG</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>HUNK</t>
+  </si>
+  <si>
+    <t>TNFAIP3</t>
+  </si>
+  <si>
+    <t>C2ORF90</t>
+  </si>
+  <si>
+    <t>EHBP1</t>
+  </si>
+  <si>
+    <t>RPS12P6</t>
+  </si>
+  <si>
+    <t>EEF1A1P6</t>
+  </si>
+  <si>
+    <t>CCRL2</t>
+  </si>
+  <si>
+    <t>PTPRK</t>
+  </si>
+  <si>
+    <t>MMP3</t>
+  </si>
+  <si>
+    <t>TNFSF4</t>
+  </si>
+  <si>
+    <t>FAM83B</t>
+  </si>
+  <si>
+    <t>CABP4</t>
+  </si>
+  <si>
+    <t>ST13P4</t>
+  </si>
+  <si>
+    <t>KIR2DL5B</t>
+  </si>
+  <si>
+    <t>AXIN2</t>
+  </si>
+  <si>
+    <t>TLR7</t>
+  </si>
+  <si>
+    <t>RNU6ATAC</t>
+  </si>
+  <si>
+    <t>MICB</t>
+  </si>
+  <si>
+    <t>ALDH1A1</t>
+  </si>
+  <si>
+    <t>RPL38P2</t>
+  </si>
+  <si>
+    <t>CABP2</t>
+  </si>
+  <si>
+    <t>SLC25A19</t>
+  </si>
+  <si>
+    <t>SLC9A4</t>
+  </si>
+  <si>
+    <t>RGS9</t>
+  </si>
+  <si>
+    <t>RPS12P5</t>
+  </si>
+  <si>
+    <t>MED12L</t>
+  </si>
+  <si>
+    <t>RAPGEF5</t>
+  </si>
+  <si>
+    <t>PRDM5</t>
+  </si>
+  <si>
+    <t>FAM78B</t>
+  </si>
+  <si>
+    <t>PTPN3</t>
+  </si>
+  <si>
+    <t>CCR5</t>
+  </si>
+  <si>
+    <t>RP9P</t>
+  </si>
+  <si>
+    <t>FAM114A1</t>
+  </si>
+  <si>
+    <t>TTC17</t>
+  </si>
+  <si>
+    <t>ZNF330</t>
+  </si>
+  <si>
+    <t>RPSAP32</t>
+  </si>
+  <si>
+    <t>FZD1</t>
+  </si>
+  <si>
+    <t>HKDC1</t>
+  </si>
+  <si>
+    <t>PVT1</t>
+  </si>
+  <si>
+    <t>STMN2</t>
+  </si>
+  <si>
+    <t>NXPH2</t>
+  </si>
+  <si>
+    <t>ALCAM</t>
+  </si>
+  <si>
+    <t>ALDH3A1</t>
+  </si>
+  <si>
+    <t>TNIP1</t>
+  </si>
+  <si>
+    <t>CTNND2</t>
+  </si>
+  <si>
+    <t>SCFD1</t>
+  </si>
+  <si>
+    <t>ITGA9</t>
+  </si>
+  <si>
+    <t>RP1L1</t>
+  </si>
+  <si>
+    <t>MOBP</t>
+  </si>
+  <si>
+    <t>INPP5B</t>
+  </si>
+  <si>
+    <t>LRRTM4</t>
+  </si>
+  <si>
+    <t>NPAS2</t>
+  </si>
+  <si>
+    <t>SARM1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>HCFC1</t>
+  </si>
+  <si>
+    <t>TMEM187</t>
+  </si>
+  <si>
+    <t>C1ORF106</t>
+  </si>
+  <si>
+    <t>LRFN2</t>
+  </si>
+  <si>
+    <t>LOC645321</t>
+  </si>
+  <si>
+    <t>OPCML</t>
+  </si>
+  <si>
+    <t>GRM8</t>
+  </si>
+  <si>
+    <t>PFKFB3</t>
+  </si>
+  <si>
+    <t>MTMR7</t>
+  </si>
+  <si>
+    <t>PRKCQ</t>
+  </si>
+  <si>
+    <t>MGLL</t>
+  </si>
+  <si>
+    <t>NUDT12</t>
+  </si>
+  <si>
+    <t>CLK3</t>
+  </si>
+  <si>
+    <t>PFKP</t>
+  </si>
+  <si>
+    <t>SUSD2</t>
+  </si>
+  <si>
+    <t>IQCF5</t>
+  </si>
+  <si>
+    <t>TMPRSS2</t>
+  </si>
+  <si>
+    <t>CABIN1</t>
+  </si>
+  <si>
+    <t>GGT5</t>
+  </si>
+  <si>
+    <t>UBASH3A</t>
+  </si>
+  <si>
+    <t>GPR133</t>
+  </si>
+  <si>
+    <t>MYO18B</t>
+  </si>
+  <si>
+    <t>MMP20</t>
+  </si>
+  <si>
+    <t>RAB9BP1</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>POU2AF1</t>
+  </si>
+  <si>
+    <t>DDX6</t>
+  </si>
+  <si>
+    <t>TREH</t>
+  </si>
+  <si>
+    <t>CASC15</t>
+  </si>
+  <si>
+    <t>TTC34</t>
+  </si>
+  <si>
+    <t>C21ORF2</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +4631,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2594,14 +4661,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Copperplate Gothic Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2614,61 +4695,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2683,15 +4711,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2722,16 +4766,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2746,7 +4819,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2758,7 +4861,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2770,85 +4957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2860,7 +4981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,61 +4993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,37 +5013,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2990,17 +5043,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3029,10 +5076,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3045,10 +5118,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3057,133 +5130,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3198,7 +5271,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3520,10 +5593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A1357"/>
+  <dimension ref="A1:A2232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A819" workbookViewId="0">
-      <selection activeCell="D838" sqref="D838"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7761,1538 +9834,5541 @@
         <v>845</v>
       </c>
     </row>
-    <row r="847" spans="1:1">
-      <c r="A847" s="4"/>
-    </row>
-    <row r="848" spans="1:1">
-      <c r="A848" s="4"/>
-    </row>
-    <row r="849" spans="1:1">
-      <c r="A849" s="4"/>
-    </row>
-    <row r="850" spans="1:1">
-      <c r="A850" s="4"/>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" s="4"/>
-    </row>
-    <row r="852" spans="1:1">
-      <c r="A852" s="4"/>
-    </row>
-    <row r="853" spans="1:1">
-      <c r="A853" s="4"/>
-    </row>
-    <row r="854" spans="1:1">
-      <c r="A854" s="4"/>
-    </row>
-    <row r="855" spans="1:1">
-      <c r="A855" s="4"/>
-    </row>
-    <row r="856" spans="1:1">
-      <c r="A856" s="4"/>
-    </row>
-    <row r="857" spans="1:1">
-      <c r="A857" s="4"/>
-    </row>
-    <row r="858" spans="1:1">
-      <c r="A858" s="4"/>
-    </row>
-    <row r="859" spans="1:1">
-      <c r="A859" s="4"/>
-    </row>
-    <row r="860" spans="1:1">
-      <c r="A860" s="4"/>
-    </row>
-    <row r="861" spans="1:1">
-      <c r="A861" s="4"/>
-    </row>
-    <row r="862" spans="1:1">
-      <c r="A862" s="4"/>
-    </row>
-    <row r="863" spans="1:1">
-      <c r="A863" s="4"/>
-    </row>
-    <row r="864" spans="1:1">
-      <c r="A864" s="4"/>
-    </row>
-    <row r="865" spans="1:1">
-      <c r="A865" s="4"/>
-    </row>
-    <row r="866" spans="1:1">
-      <c r="A866" s="4"/>
-    </row>
-    <row r="867" spans="1:1">
-      <c r="A867" s="4"/>
-    </row>
-    <row r="868" spans="1:1">
-      <c r="A868" s="4"/>
-    </row>
-    <row r="869" spans="1:1">
-      <c r="A869" s="4"/>
-    </row>
-    <row r="870" spans="1:1">
-      <c r="A870" s="4"/>
-    </row>
-    <row r="871" spans="1:1">
-      <c r="A871" s="4"/>
-    </row>
-    <row r="872" spans="1:1">
-      <c r="A872" s="4"/>
-    </row>
-    <row r="873" spans="1:1">
-      <c r="A873" s="4"/>
-    </row>
-    <row r="874" spans="1:1">
-      <c r="A874" s="4"/>
-    </row>
-    <row r="875" spans="1:1">
-      <c r="A875" s="4"/>
-    </row>
-    <row r="876" spans="1:1">
-      <c r="A876" s="4"/>
-    </row>
-    <row r="877" spans="1:1">
-      <c r="A877" s="4"/>
-    </row>
-    <row r="878" spans="1:1">
-      <c r="A878" s="4"/>
-    </row>
-    <row r="879" spans="1:1">
-      <c r="A879" s="4"/>
-    </row>
-    <row r="880" spans="1:1">
-      <c r="A880" s="4"/>
-    </row>
-    <row r="881" spans="1:1">
-      <c r="A881" s="4"/>
-    </row>
-    <row r="882" spans="1:1">
-      <c r="A882" s="4"/>
-    </row>
-    <row r="883" spans="1:1">
-      <c r="A883" s="4"/>
-    </row>
-    <row r="884" spans="1:1">
-      <c r="A884" s="4"/>
-    </row>
-    <row r="885" spans="1:1">
-      <c r="A885" s="4"/>
-    </row>
-    <row r="886" spans="1:1">
-      <c r="A886" s="4"/>
-    </row>
-    <row r="887" spans="1:1">
-      <c r="A887" s="4"/>
-    </row>
-    <row r="888" spans="1:1">
-      <c r="A888" s="4"/>
-    </row>
-    <row r="889" spans="1:1">
-      <c r="A889" s="4"/>
-    </row>
-    <row r="890" spans="1:1">
-      <c r="A890" s="4"/>
-    </row>
-    <row r="891" spans="1:1">
-      <c r="A891" s="4"/>
-    </row>
-    <row r="892" spans="1:1">
-      <c r="A892" s="4"/>
-    </row>
-    <row r="893" spans="1:1">
-      <c r="A893" s="4"/>
-    </row>
-    <row r="894" spans="1:1">
-      <c r="A894" s="4"/>
-    </row>
-    <row r="895" spans="1:1">
-      <c r="A895" s="4"/>
-    </row>
-    <row r="896" spans="1:1">
-      <c r="A896" s="4"/>
-    </row>
-    <row r="897" spans="1:1">
-      <c r="A897" s="4"/>
-    </row>
-    <row r="898" spans="1:1">
-      <c r="A898" s="4"/>
-    </row>
-    <row r="899" spans="1:1">
-      <c r="A899" s="4"/>
-    </row>
-    <row r="900" spans="1:1">
-      <c r="A900" s="4"/>
-    </row>
-    <row r="901" spans="1:1">
-      <c r="A901" s="4"/>
-    </row>
-    <row r="902" spans="1:1">
-      <c r="A902" s="4"/>
-    </row>
-    <row r="903" spans="1:1">
-      <c r="A903" s="4"/>
-    </row>
-    <row r="904" spans="1:1">
-      <c r="A904" s="4"/>
-    </row>
-    <row r="905" spans="1:1">
-      <c r="A905" s="4"/>
-    </row>
-    <row r="906" spans="1:1">
-      <c r="A906" s="4"/>
-    </row>
-    <row r="907" spans="1:1">
-      <c r="A907" s="4"/>
-    </row>
-    <row r="908" spans="1:1">
-      <c r="A908" s="4"/>
-    </row>
-    <row r="909" spans="1:1">
-      <c r="A909" s="4"/>
-    </row>
-    <row r="910" spans="1:1">
-      <c r="A910" s="4"/>
-    </row>
-    <row r="911" spans="1:1">
-      <c r="A911" s="4"/>
-    </row>
-    <row r="912" spans="1:1">
-      <c r="A912" s="4"/>
-    </row>
-    <row r="913" spans="1:1">
-      <c r="A913" s="4"/>
-    </row>
-    <row r="914" spans="1:1">
-      <c r="A914" s="4"/>
-    </row>
-    <row r="915" spans="1:1">
-      <c r="A915" s="4"/>
-    </row>
-    <row r="916" spans="1:1">
-      <c r="A916" s="4"/>
-    </row>
-    <row r="917" spans="1:1">
-      <c r="A917" s="4"/>
-    </row>
-    <row r="918" spans="1:1">
-      <c r="A918" s="4"/>
-    </row>
-    <row r="919" spans="1:1">
-      <c r="A919" s="4"/>
-    </row>
-    <row r="920" spans="1:1">
-      <c r="A920" s="4"/>
-    </row>
-    <row r="921" spans="1:1">
-      <c r="A921" s="4"/>
-    </row>
-    <row r="922" spans="1:1">
-      <c r="A922" s="4"/>
-    </row>
-    <row r="923" spans="1:1">
-      <c r="A923" s="4"/>
-    </row>
-    <row r="924" spans="1:1">
-      <c r="A924" s="4"/>
-    </row>
-    <row r="925" spans="1:1">
-      <c r="A925" s="4"/>
-    </row>
-    <row r="926" spans="1:1">
-      <c r="A926" s="4"/>
-    </row>
-    <row r="927" spans="1:1">
-      <c r="A927" s="4"/>
-    </row>
-    <row r="928" spans="1:1">
-      <c r="A928" s="4"/>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" s="4"/>
-    </row>
-    <row r="930" spans="1:1">
-      <c r="A930" s="4"/>
-    </row>
-    <row r="931" spans="1:1">
-      <c r="A931" s="4"/>
-    </row>
-    <row r="932" spans="1:1">
-      <c r="A932" s="4"/>
-    </row>
-    <row r="933" spans="1:1">
-      <c r="A933" s="4"/>
-    </row>
-    <row r="934" spans="1:1">
-      <c r="A934" s="4"/>
-    </row>
-    <row r="935" spans="1:1">
-      <c r="A935" s="4"/>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" s="4"/>
-    </row>
-    <row r="937" spans="1:1">
-      <c r="A937" s="4"/>
-    </row>
-    <row r="938" spans="1:1">
-      <c r="A938" s="4"/>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" s="4"/>
-    </row>
-    <row r="940" spans="1:1">
-      <c r="A940" s="4"/>
-    </row>
-    <row r="941" spans="1:1">
-      <c r="A941" s="4"/>
-    </row>
-    <row r="942" spans="1:1">
-      <c r="A942" s="4"/>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" s="4"/>
-    </row>
-    <row r="944" spans="1:1">
-      <c r="A944" s="4"/>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" s="4"/>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" s="4"/>
-    </row>
-    <row r="947" spans="1:1">
-      <c r="A947" s="4"/>
-    </row>
-    <row r="948" spans="1:1">
-      <c r="A948" s="4"/>
-    </row>
-    <row r="949" spans="1:1">
-      <c r="A949" s="4"/>
-    </row>
-    <row r="950" spans="1:1">
-      <c r="A950" s="4"/>
-    </row>
-    <row r="951" spans="1:1">
-      <c r="A951" s="4"/>
-    </row>
-    <row r="952" spans="1:1">
-      <c r="A952" s="4"/>
-    </row>
-    <row r="953" spans="1:1">
-      <c r="A953" s="4"/>
-    </row>
-    <row r="954" spans="1:1">
-      <c r="A954" s="4"/>
-    </row>
-    <row r="955" spans="1:1">
-      <c r="A955" s="4"/>
-    </row>
-    <row r="956" spans="1:1">
-      <c r="A956" s="4"/>
-    </row>
-    <row r="957" spans="1:1">
-      <c r="A957" s="4"/>
-    </row>
-    <row r="958" spans="1:1">
-      <c r="A958" s="4"/>
-    </row>
-    <row r="959" spans="1:1">
-      <c r="A959" s="4"/>
-    </row>
-    <row r="960" spans="1:1">
-      <c r="A960" s="4"/>
-    </row>
-    <row r="961" spans="1:1">
-      <c r="A961" s="4"/>
-    </row>
-    <row r="962" spans="1:1">
-      <c r="A962" s="4"/>
-    </row>
-    <row r="963" spans="1:1">
-      <c r="A963" s="4"/>
-    </row>
-    <row r="964" spans="1:1">
-      <c r="A964" s="4"/>
-    </row>
-    <row r="965" spans="1:1">
-      <c r="A965" s="4"/>
-    </row>
-    <row r="966" spans="1:1">
-      <c r="A966" s="4"/>
-    </row>
-    <row r="967" spans="1:1">
-      <c r="A967" s="4"/>
-    </row>
-    <row r="968" spans="1:1">
-      <c r="A968" s="4"/>
-    </row>
-    <row r="969" spans="1:1">
-      <c r="A969" s="4"/>
-    </row>
-    <row r="970" spans="1:1">
-      <c r="A970" s="4"/>
-    </row>
-    <row r="971" spans="1:1">
-      <c r="A971" s="4"/>
-    </row>
-    <row r="972" spans="1:1">
-      <c r="A972" s="4"/>
-    </row>
-    <row r="973" spans="1:1">
-      <c r="A973" s="4"/>
-    </row>
-    <row r="974" spans="1:1">
-      <c r="A974" s="4"/>
-    </row>
-    <row r="975" spans="1:1">
-      <c r="A975" s="4"/>
-    </row>
-    <row r="976" spans="1:1">
-      <c r="A976" s="4"/>
-    </row>
-    <row r="977" spans="1:1">
-      <c r="A977" s="4"/>
-    </row>
-    <row r="978" spans="1:1">
-      <c r="A978" s="4"/>
-    </row>
-    <row r="979" spans="1:1">
-      <c r="A979" s="4"/>
-    </row>
-    <row r="980" spans="1:1">
-      <c r="A980" s="4"/>
-    </row>
-    <row r="981" spans="1:1">
-      <c r="A981" s="4"/>
-    </row>
-    <row r="982" spans="1:1">
-      <c r="A982" s="4"/>
-    </row>
-    <row r="983" spans="1:1">
-      <c r="A983" s="4"/>
-    </row>
-    <row r="984" spans="1:1">
-      <c r="A984" s="4"/>
-    </row>
-    <row r="985" spans="1:1">
-      <c r="A985" s="4"/>
-    </row>
-    <row r="986" spans="1:1">
-      <c r="A986" s="4"/>
-    </row>
-    <row r="987" spans="1:1">
-      <c r="A987" s="4"/>
-    </row>
-    <row r="988" spans="1:1">
-      <c r="A988" s="4"/>
-    </row>
-    <row r="989" spans="1:1">
-      <c r="A989" s="4"/>
-    </row>
-    <row r="990" spans="1:1">
-      <c r="A990" s="4"/>
-    </row>
-    <row r="991" spans="1:1">
-      <c r="A991" s="4"/>
-    </row>
-    <row r="992" spans="1:1">
-      <c r="A992" s="4"/>
-    </row>
-    <row r="993" spans="1:1">
-      <c r="A993" s="4"/>
-    </row>
-    <row r="994" spans="1:1">
-      <c r="A994" s="4"/>
-    </row>
-    <row r="995" spans="1:1">
-      <c r="A995" s="4"/>
-    </row>
-    <row r="996" spans="1:1">
-      <c r="A996" s="4"/>
-    </row>
-    <row r="997" spans="1:1">
-      <c r="A997" s="4"/>
-    </row>
-    <row r="998" spans="1:1">
-      <c r="A998" s="4"/>
-    </row>
-    <row r="999" spans="1:1">
-      <c r="A999" s="4"/>
-    </row>
-    <row r="1000" spans="1:1">
-      <c r="A1000" s="4"/>
-    </row>
-    <row r="1001" spans="1:1">
-      <c r="A1001" s="4"/>
-    </row>
-    <row r="1002" spans="1:1">
-      <c r="A1002" s="4"/>
-    </row>
-    <row r="1003" spans="1:1">
-      <c r="A1003" s="4"/>
-    </row>
-    <row r="1004" spans="1:1">
-      <c r="A1004" s="4"/>
-    </row>
-    <row r="1005" spans="1:1">
-      <c r="A1005" s="4"/>
-    </row>
-    <row r="1006" spans="1:1">
-      <c r="A1006" s="4"/>
-    </row>
-    <row r="1007" spans="1:1">
-      <c r="A1007" s="4"/>
-    </row>
-    <row r="1008" spans="1:1">
-      <c r="A1008" s="4"/>
-    </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009" s="4"/>
-    </row>
-    <row r="1010" spans="1:1">
-      <c r="A1010" s="4"/>
-    </row>
-    <row r="1011" spans="1:1">
-      <c r="A1011" s="4"/>
-    </row>
-    <row r="1012" spans="1:1">
-      <c r="A1012" s="4"/>
-    </row>
-    <row r="1013" spans="1:1">
-      <c r="A1013" s="4"/>
-    </row>
-    <row r="1014" spans="1:1">
-      <c r="A1014" s="4"/>
-    </row>
-    <row r="1015" spans="1:1">
-      <c r="A1015" s="4"/>
-    </row>
-    <row r="1016" spans="1:1">
-      <c r="A1016" s="4"/>
-    </row>
-    <row r="1017" spans="1:1">
-      <c r="A1017" s="4"/>
-    </row>
-    <row r="1018" spans="1:1">
-      <c r="A1018" s="4"/>
-    </row>
-    <row r="1019" spans="1:1">
-      <c r="A1019" s="4"/>
-    </row>
-    <row r="1020" spans="1:1">
-      <c r="A1020" s="4"/>
-    </row>
-    <row r="1021" spans="1:1">
-      <c r="A1021" s="4"/>
-    </row>
-    <row r="1022" spans="1:1">
-      <c r="A1022" s="4"/>
-    </row>
-    <row r="1023" spans="1:1">
-      <c r="A1023" s="4"/>
-    </row>
-    <row r="1024" spans="1:1">
-      <c r="A1024" s="4"/>
-    </row>
-    <row r="1025" spans="1:1">
-      <c r="A1025" s="4"/>
-    </row>
-    <row r="1026" spans="1:1">
-      <c r="A1026" s="4"/>
-    </row>
-    <row r="1027" spans="1:1">
-      <c r="A1027" s="4"/>
-    </row>
-    <row r="1028" spans="1:1">
-      <c r="A1028" s="4"/>
-    </row>
-    <row r="1029" spans="1:1">
-      <c r="A1029" s="4"/>
-    </row>
-    <row r="1030" spans="1:1">
-      <c r="A1030" s="4"/>
-    </row>
-    <row r="1031" spans="1:1">
-      <c r="A1031" s="4"/>
-    </row>
-    <row r="1032" spans="1:1">
-      <c r="A1032" s="4"/>
-    </row>
-    <row r="1033" spans="1:1">
-      <c r="A1033" s="4"/>
-    </row>
-    <row r="1034" spans="1:1">
-      <c r="A1034" s="4"/>
-    </row>
-    <row r="1035" spans="1:1">
-      <c r="A1035" s="4"/>
-    </row>
-    <row r="1036" spans="1:1">
-      <c r="A1036" s="4"/>
-    </row>
-    <row r="1037" spans="1:1">
-      <c r="A1037" s="4"/>
-    </row>
-    <row r="1038" spans="1:1">
-      <c r="A1038" s="4"/>
-    </row>
-    <row r="1039" spans="1:1">
-      <c r="A1039" s="4"/>
-    </row>
-    <row r="1040" spans="1:1">
-      <c r="A1040" s="4"/>
-    </row>
-    <row r="1041" spans="1:1">
-      <c r="A1041" s="4"/>
-    </row>
-    <row r="1042" spans="1:1">
-      <c r="A1042" s="4"/>
-    </row>
-    <row r="1043" spans="1:1">
-      <c r="A1043" s="4"/>
-    </row>
-    <row r="1044" spans="1:1">
-      <c r="A1044" s="4"/>
-    </row>
-    <row r="1045" spans="1:1">
-      <c r="A1045" s="4"/>
-    </row>
-    <row r="1046" spans="1:1">
-      <c r="A1046" s="4"/>
-    </row>
-    <row r="1047" spans="1:1">
-      <c r="A1047" s="4"/>
-    </row>
-    <row r="1048" spans="1:1">
-      <c r="A1048" s="4"/>
-    </row>
-    <row r="1049" spans="1:1">
-      <c r="A1049" s="4"/>
-    </row>
-    <row r="1050" spans="1:1">
-      <c r="A1050" s="4"/>
-    </row>
-    <row r="1051" spans="1:1">
-      <c r="A1051" s="4"/>
-    </row>
-    <row r="1052" spans="1:1">
-      <c r="A1052" s="4"/>
-    </row>
-    <row r="1053" spans="1:1">
-      <c r="A1053" s="4"/>
-    </row>
-    <row r="1054" spans="1:1">
-      <c r="A1054" s="4"/>
-    </row>
-    <row r="1055" spans="1:1">
-      <c r="A1055" s="4"/>
-    </row>
-    <row r="1056" spans="1:1">
-      <c r="A1056" s="4"/>
-    </row>
-    <row r="1057" spans="1:1">
-      <c r="A1057" s="4"/>
-    </row>
-    <row r="1058" spans="1:1">
-      <c r="A1058" s="4"/>
-    </row>
-    <row r="1059" spans="1:1">
-      <c r="A1059" s="4"/>
-    </row>
-    <row r="1060" spans="1:1">
-      <c r="A1060" s="4"/>
-    </row>
-    <row r="1061" spans="1:1">
-      <c r="A1061" s="4"/>
-    </row>
-    <row r="1062" spans="1:1">
-      <c r="A1062" s="4"/>
-    </row>
-    <row r="1063" spans="1:1">
-      <c r="A1063" s="4"/>
-    </row>
-    <row r="1064" spans="1:1">
-      <c r="A1064" s="4"/>
-    </row>
-    <row r="1065" spans="1:1">
-      <c r="A1065" s="4"/>
-    </row>
-    <row r="1066" spans="1:1">
-      <c r="A1066" s="4"/>
-    </row>
-    <row r="1067" spans="1:1">
-      <c r="A1067" s="4"/>
-    </row>
-    <row r="1068" spans="1:1">
-      <c r="A1068" s="4"/>
-    </row>
-    <row r="1069" spans="1:1">
-      <c r="A1069" s="4"/>
-    </row>
-    <row r="1070" spans="1:1">
-      <c r="A1070" s="4"/>
-    </row>
-    <row r="1071" spans="1:1">
-      <c r="A1071" s="4"/>
-    </row>
-    <row r="1072" spans="1:1">
-      <c r="A1072" s="4"/>
-    </row>
-    <row r="1073" spans="1:1">
-      <c r="A1073" s="4"/>
-    </row>
-    <row r="1074" spans="1:1">
-      <c r="A1074" s="4"/>
-    </row>
-    <row r="1075" spans="1:1">
-      <c r="A1075" s="4"/>
-    </row>
-    <row r="1076" spans="1:1">
-      <c r="A1076" s="4"/>
-    </row>
-    <row r="1077" spans="1:1">
-      <c r="A1077" s="4"/>
-    </row>
-    <row r="1078" spans="1:1">
-      <c r="A1078" s="4"/>
-    </row>
-    <row r="1079" spans="1:1">
-      <c r="A1079" s="4"/>
-    </row>
-    <row r="1080" spans="1:1">
-      <c r="A1080" s="4"/>
-    </row>
-    <row r="1081" spans="1:1">
-      <c r="A1081" s="4"/>
-    </row>
-    <row r="1082" spans="1:1">
-      <c r="A1082" s="4"/>
-    </row>
-    <row r="1083" spans="1:1">
-      <c r="A1083" s="4"/>
-    </row>
-    <row r="1084" spans="1:1">
-      <c r="A1084" s="4"/>
-    </row>
-    <row r="1085" spans="1:1">
-      <c r="A1085" s="4"/>
-    </row>
-    <row r="1086" spans="1:1">
-      <c r="A1086" s="4"/>
-    </row>
-    <row r="1087" spans="1:1">
-      <c r="A1087" s="4"/>
-    </row>
-    <row r="1088" spans="1:1">
-      <c r="A1088" s="4"/>
-    </row>
-    <row r="1089" spans="1:1">
-      <c r="A1089" s="4"/>
-    </row>
-    <row r="1090" spans="1:1">
-      <c r="A1090" s="4"/>
-    </row>
-    <row r="1091" spans="1:1">
-      <c r="A1091" s="4"/>
-    </row>
-    <row r="1092" spans="1:1">
-      <c r="A1092" s="4"/>
-    </row>
-    <row r="1093" spans="1:1">
-      <c r="A1093" s="4"/>
-    </row>
-    <row r="1094" spans="1:1">
-      <c r="A1094" s="4"/>
-    </row>
-    <row r="1095" spans="1:1">
-      <c r="A1095" s="4"/>
-    </row>
-    <row r="1096" spans="1:1">
-      <c r="A1096" s="4"/>
-    </row>
-    <row r="1097" spans="1:1">
-      <c r="A1097" s="4"/>
-    </row>
-    <row r="1098" spans="1:1">
-      <c r="A1098" s="4"/>
-    </row>
-    <row r="1099" spans="1:1">
-      <c r="A1099" s="4"/>
-    </row>
-    <row r="1100" spans="1:1">
-      <c r="A1100" s="4"/>
-    </row>
-    <row r="1101" spans="1:1">
-      <c r="A1101" s="4"/>
-    </row>
-    <row r="1102" spans="1:1">
-      <c r="A1102" s="4"/>
-    </row>
-    <row r="1103" spans="1:1">
-      <c r="A1103" s="4"/>
-    </row>
-    <row r="1104" spans="1:1">
-      <c r="A1104" s="4"/>
-    </row>
-    <row r="1105" spans="1:1">
-      <c r="A1105" s="4"/>
-    </row>
-    <row r="1106" spans="1:1">
-      <c r="A1106" s="4"/>
-    </row>
-    <row r="1107" spans="1:1">
-      <c r="A1107" s="4"/>
-    </row>
-    <row r="1108" spans="1:1">
-      <c r="A1108" s="4"/>
-    </row>
-    <row r="1109" spans="1:1">
-      <c r="A1109" s="4"/>
-    </row>
-    <row r="1110" spans="1:1">
-      <c r="A1110" s="4"/>
-    </row>
-    <row r="1111" spans="1:1">
-      <c r="A1111" s="4"/>
-    </row>
-    <row r="1112" spans="1:1">
-      <c r="A1112" s="4"/>
-    </row>
-    <row r="1113" spans="1:1">
-      <c r="A1113" s="4"/>
-    </row>
-    <row r="1114" spans="1:1">
-      <c r="A1114" s="4"/>
-    </row>
-    <row r="1115" spans="1:1">
-      <c r="A1115" s="4"/>
-    </row>
-    <row r="1116" spans="1:1">
-      <c r="A1116" s="4"/>
-    </row>
-    <row r="1117" spans="1:1">
-      <c r="A1117" s="4"/>
-    </row>
-    <row r="1118" spans="1:1">
-      <c r="A1118" s="4"/>
-    </row>
-    <row r="1119" spans="1:1">
-      <c r="A1119" s="4"/>
-    </row>
-    <row r="1120" spans="1:1">
-      <c r="A1120" s="4"/>
-    </row>
-    <row r="1121" spans="1:1">
-      <c r="A1121" s="4"/>
-    </row>
-    <row r="1122" spans="1:1">
-      <c r="A1122" s="4"/>
-    </row>
-    <row r="1123" spans="1:1">
-      <c r="A1123" s="4"/>
-    </row>
-    <row r="1124" spans="1:1">
-      <c r="A1124" s="4"/>
-    </row>
-    <row r="1125" spans="1:1">
-      <c r="A1125" s="4"/>
-    </row>
-    <row r="1126" spans="1:1">
-      <c r="A1126" s="4"/>
-    </row>
-    <row r="1127" spans="1:1">
-      <c r="A1127" s="4"/>
-    </row>
-    <row r="1128" spans="1:1">
-      <c r="A1128" s="4"/>
-    </row>
-    <row r="1129" spans="1:1">
-      <c r="A1129" s="4"/>
-    </row>
-    <row r="1130" spans="1:1">
-      <c r="A1130" s="4"/>
-    </row>
-    <row r="1131" spans="1:1">
-      <c r="A1131" s="4"/>
-    </row>
-    <row r="1132" spans="1:1">
-      <c r="A1132" s="4"/>
-    </row>
-    <row r="1133" spans="1:1">
-      <c r="A1133" s="4"/>
-    </row>
-    <row r="1134" spans="1:1">
-      <c r="A1134" s="4"/>
-    </row>
-    <row r="1135" spans="1:1">
-      <c r="A1135" s="4"/>
-    </row>
-    <row r="1136" spans="1:1">
-      <c r="A1136" s="4"/>
-    </row>
-    <row r="1137" spans="1:1">
-      <c r="A1137" s="4"/>
-    </row>
-    <row r="1138" spans="1:1">
-      <c r="A1138" s="4"/>
-    </row>
-    <row r="1139" spans="1:1">
-      <c r="A1139" s="4"/>
-    </row>
-    <row r="1140" spans="1:1">
-      <c r="A1140" s="4"/>
-    </row>
-    <row r="1141" spans="1:1">
-      <c r="A1141" s="4"/>
-    </row>
-    <row r="1142" spans="1:1">
-      <c r="A1142" s="4"/>
-    </row>
-    <row r="1143" spans="1:1">
-      <c r="A1143" s="4"/>
-    </row>
-    <row r="1144" spans="1:1">
-      <c r="A1144" s="4"/>
-    </row>
-    <row r="1145" spans="1:1">
-      <c r="A1145" s="4"/>
-    </row>
-    <row r="1146" spans="1:1">
-      <c r="A1146" s="4"/>
-    </row>
-    <row r="1147" spans="1:1">
-      <c r="A1147" s="4"/>
-    </row>
-    <row r="1148" spans="1:1">
-      <c r="A1148" s="4"/>
-    </row>
-    <row r="1149" spans="1:1">
-      <c r="A1149" s="4"/>
-    </row>
-    <row r="1150" spans="1:1">
-      <c r="A1150" s="4"/>
-    </row>
-    <row r="1151" spans="1:1">
-      <c r="A1151" s="4"/>
-    </row>
-    <row r="1152" spans="1:1">
-      <c r="A1152" s="4"/>
-    </row>
-    <row r="1153" spans="1:1">
-      <c r="A1153" s="4"/>
-    </row>
-    <row r="1154" spans="1:1">
-      <c r="A1154" s="4"/>
-    </row>
-    <row r="1155" spans="1:1">
-      <c r="A1155" s="4"/>
-    </row>
-    <row r="1156" spans="1:1">
-      <c r="A1156" s="4"/>
-    </row>
-    <row r="1157" spans="1:1">
-      <c r="A1157" s="4"/>
-    </row>
-    <row r="1158" spans="1:1">
-      <c r="A1158" s="4"/>
-    </row>
-    <row r="1159" spans="1:1">
-      <c r="A1159" s="4"/>
-    </row>
-    <row r="1160" spans="1:1">
-      <c r="A1160" s="4"/>
-    </row>
-    <row r="1161" spans="1:1">
-      <c r="A1161" s="4"/>
-    </row>
-    <row r="1162" spans="1:1">
-      <c r="A1162" s="4"/>
-    </row>
-    <row r="1163" spans="1:1">
-      <c r="A1163" s="4"/>
-    </row>
-    <row r="1164" spans="1:1">
-      <c r="A1164" s="4"/>
-    </row>
-    <row r="1165" spans="1:1">
-      <c r="A1165" s="4"/>
-    </row>
-    <row r="1166" spans="1:1">
-      <c r="A1166" s="4"/>
-    </row>
-    <row r="1167" spans="1:1">
-      <c r="A1167" s="4"/>
-    </row>
-    <row r="1168" spans="1:1">
-      <c r="A1168" s="4"/>
-    </row>
-    <row r="1169" spans="1:1">
-      <c r="A1169" s="4"/>
-    </row>
-    <row r="1170" spans="1:1">
-      <c r="A1170" s="4"/>
-    </row>
-    <row r="1171" spans="1:1">
-      <c r="A1171" s="4"/>
-    </row>
-    <row r="1172" spans="1:1">
-      <c r="A1172" s="4"/>
-    </row>
-    <row r="1173" spans="1:1">
-      <c r="A1173" s="4"/>
-    </row>
-    <row r="1174" spans="1:1">
-      <c r="A1174" s="4"/>
-    </row>
-    <row r="1175" spans="1:1">
-      <c r="A1175" s="4"/>
-    </row>
-    <row r="1176" spans="1:1">
-      <c r="A1176" s="4"/>
-    </row>
-    <row r="1177" spans="1:1">
-      <c r="A1177" s="4"/>
-    </row>
-    <row r="1178" spans="1:1">
-      <c r="A1178" s="4"/>
-    </row>
-    <row r="1179" spans="1:1">
-      <c r="A1179" s="4"/>
-    </row>
-    <row r="1180" spans="1:1">
-      <c r="A1180" s="4"/>
-    </row>
-    <row r="1181" spans="1:1">
-      <c r="A1181" s="4"/>
-    </row>
-    <row r="1182" spans="1:1">
-      <c r="A1182" s="4"/>
-    </row>
-    <row r="1183" spans="1:1">
-      <c r="A1183" s="4"/>
-    </row>
-    <row r="1184" spans="1:1">
-      <c r="A1184" s="4"/>
-    </row>
-    <row r="1185" spans="1:1">
-      <c r="A1185" s="4"/>
-    </row>
-    <row r="1186" spans="1:1">
-      <c r="A1186" s="4"/>
-    </row>
-    <row r="1187" spans="1:1">
-      <c r="A1187" s="4"/>
-    </row>
-    <row r="1188" spans="1:1">
-      <c r="A1188" s="4"/>
-    </row>
-    <row r="1189" spans="1:1">
-      <c r="A1189" s="4"/>
-    </row>
-    <row r="1190" spans="1:1">
-      <c r="A1190" s="4"/>
-    </row>
-    <row r="1191" spans="1:1">
-      <c r="A1191" s="4"/>
-    </row>
-    <row r="1192" spans="1:1">
-      <c r="A1192" s="4"/>
-    </row>
-    <row r="1193" spans="1:1">
-      <c r="A1193" s="4"/>
-    </row>
-    <row r="1194" spans="1:1">
-      <c r="A1194" s="4"/>
-    </row>
-    <row r="1195" spans="1:1">
-      <c r="A1195" s="4"/>
-    </row>
-    <row r="1196" spans="1:1">
-      <c r="A1196" s="4"/>
-    </row>
-    <row r="1197" spans="1:1">
-      <c r="A1197" s="4"/>
-    </row>
-    <row r="1198" spans="1:1">
-      <c r="A1198" s="4"/>
-    </row>
-    <row r="1199" spans="1:1">
-      <c r="A1199" s="4"/>
-    </row>
-    <row r="1200" spans="1:1">
-      <c r="A1200" s="4"/>
-    </row>
-    <row r="1201" spans="1:1">
-      <c r="A1201" s="4"/>
-    </row>
-    <row r="1202" spans="1:1">
-      <c r="A1202" s="4"/>
-    </row>
-    <row r="1203" spans="1:1">
-      <c r="A1203" s="4"/>
-    </row>
-    <row r="1204" spans="1:1">
-      <c r="A1204" s="4"/>
-    </row>
-    <row r="1205" spans="1:1">
-      <c r="A1205" s="4"/>
-    </row>
-    <row r="1206" spans="1:1">
-      <c r="A1206" s="4"/>
-    </row>
-    <row r="1207" spans="1:1">
-      <c r="A1207" s="4"/>
-    </row>
-    <row r="1208" spans="1:1">
-      <c r="A1208" s="4"/>
-    </row>
-    <row r="1209" spans="1:1">
-      <c r="A1209" s="4"/>
-    </row>
-    <row r="1210" spans="1:1">
-      <c r="A1210" s="4"/>
-    </row>
-    <row r="1211" spans="1:1">
-      <c r="A1211" s="4"/>
-    </row>
-    <row r="1212" spans="1:1">
-      <c r="A1212" s="4"/>
-    </row>
-    <row r="1213" spans="1:1">
-      <c r="A1213" s="4"/>
-    </row>
-    <row r="1214" spans="1:1">
-      <c r="A1214" s="4"/>
-    </row>
-    <row r="1215" spans="1:1">
-      <c r="A1215" s="4"/>
-    </row>
-    <row r="1216" spans="1:1">
-      <c r="A1216" s="4"/>
-    </row>
-    <row r="1217" spans="1:1">
-      <c r="A1217" s="4"/>
-    </row>
-    <row r="1218" spans="1:1">
-      <c r="A1218" s="4"/>
-    </row>
-    <row r="1219" spans="1:1">
-      <c r="A1219" s="4"/>
-    </row>
-    <row r="1220" spans="1:1">
-      <c r="A1220" s="4"/>
-    </row>
-    <row r="1221" spans="1:1">
-      <c r="A1221" s="4"/>
-    </row>
-    <row r="1222" spans="1:1">
-      <c r="A1222" s="4"/>
-    </row>
-    <row r="1223" spans="1:1">
-      <c r="A1223" s="4"/>
-    </row>
-    <row r="1224" spans="1:1">
-      <c r="A1224" s="4"/>
-    </row>
-    <row r="1225" spans="1:1">
-      <c r="A1225" s="4"/>
-    </row>
-    <row r="1226" spans="1:1">
-      <c r="A1226" s="4"/>
-    </row>
-    <row r="1227" spans="1:1">
-      <c r="A1227" s="4"/>
-    </row>
-    <row r="1228" spans="1:1">
-      <c r="A1228" s="4"/>
-    </row>
-    <row r="1229" spans="1:1">
-      <c r="A1229" s="4"/>
-    </row>
-    <row r="1230" spans="1:1">
-      <c r="A1230" s="4"/>
-    </row>
-    <row r="1231" spans="1:1">
-      <c r="A1231" s="4"/>
-    </row>
-    <row r="1232" spans="1:1">
-      <c r="A1232" s="4"/>
-    </row>
-    <row r="1233" spans="1:1">
-      <c r="A1233" s="4"/>
-    </row>
-    <row r="1234" spans="1:1">
-      <c r="A1234" s="4"/>
-    </row>
-    <row r="1235" spans="1:1">
-      <c r="A1235" s="4"/>
-    </row>
-    <row r="1236" spans="1:1">
-      <c r="A1236" s="4"/>
-    </row>
-    <row r="1237" spans="1:1">
-      <c r="A1237" s="4"/>
-    </row>
-    <row r="1238" spans="1:1">
-      <c r="A1238" s="4"/>
-    </row>
-    <row r="1239" spans="1:1">
-      <c r="A1239" s="4"/>
-    </row>
-    <row r="1240" spans="1:1">
-      <c r="A1240" s="4"/>
-    </row>
-    <row r="1241" spans="1:1">
-      <c r="A1241" s="4"/>
-    </row>
-    <row r="1242" spans="1:1">
-      <c r="A1242" s="4"/>
-    </row>
-    <row r="1243" spans="1:1">
-      <c r="A1243" s="4"/>
-    </row>
-    <row r="1244" spans="1:1">
-      <c r="A1244" s="4"/>
-    </row>
-    <row r="1245" spans="1:1">
-      <c r="A1245" s="4"/>
-    </row>
-    <row r="1246" spans="1:1">
-      <c r="A1246" s="4"/>
-    </row>
-    <row r="1247" spans="1:1">
-      <c r="A1247" s="4"/>
-    </row>
-    <row r="1248" spans="1:1">
-      <c r="A1248" s="4"/>
-    </row>
-    <row r="1249" spans="1:1">
-      <c r="A1249" s="4"/>
-    </row>
-    <row r="1250" spans="1:1">
-      <c r="A1250" s="4"/>
-    </row>
-    <row r="1251" spans="1:1">
-      <c r="A1251" s="4"/>
-    </row>
-    <row r="1252" spans="1:1">
-      <c r="A1252" s="4"/>
-    </row>
-    <row r="1253" spans="1:1">
-      <c r="A1253" s="4"/>
-    </row>
-    <row r="1254" spans="1:1">
-      <c r="A1254" s="4"/>
-    </row>
-    <row r="1255" spans="1:1">
-      <c r="A1255" s="4"/>
-    </row>
-    <row r="1256" spans="1:1">
-      <c r="A1256" s="4"/>
-    </row>
-    <row r="1257" spans="1:1">
-      <c r="A1257" s="4"/>
-    </row>
-    <row r="1258" spans="1:1">
-      <c r="A1258" s="4"/>
-    </row>
-    <row r="1259" spans="1:1">
-      <c r="A1259" s="4"/>
-    </row>
-    <row r="1260" spans="1:1">
-      <c r="A1260" s="4"/>
-    </row>
-    <row r="1261" spans="1:1">
-      <c r="A1261" s="4"/>
-    </row>
-    <row r="1262" spans="1:1">
-      <c r="A1262" s="4"/>
-    </row>
-    <row r="1263" spans="1:1">
-      <c r="A1263" s="4"/>
-    </row>
-    <row r="1264" spans="1:1">
-      <c r="A1264" s="4"/>
-    </row>
-    <row r="1265" spans="1:1">
-      <c r="A1265" s="4"/>
-    </row>
-    <row r="1266" spans="1:1">
-      <c r="A1266" s="4"/>
-    </row>
-    <row r="1267" spans="1:1">
-      <c r="A1267" s="4"/>
-    </row>
-    <row r="1268" spans="1:1">
-      <c r="A1268" s="4"/>
-    </row>
-    <row r="1269" spans="1:1">
-      <c r="A1269" s="4"/>
-    </row>
-    <row r="1270" spans="1:1">
-      <c r="A1270" s="4"/>
-    </row>
-    <row r="1271" spans="1:1">
-      <c r="A1271" s="4"/>
-    </row>
-    <row r="1272" spans="1:1">
-      <c r="A1272" s="4"/>
-    </row>
-    <row r="1273" spans="1:1">
-      <c r="A1273" s="4"/>
-    </row>
-    <row r="1274" spans="1:1">
-      <c r="A1274" s="4"/>
-    </row>
-    <row r="1275" spans="1:1">
-      <c r="A1275" s="4"/>
-    </row>
-    <row r="1276" spans="1:1">
-      <c r="A1276" s="4"/>
-    </row>
-    <row r="1277" spans="1:1">
-      <c r="A1277" s="4"/>
-    </row>
-    <row r="1278" spans="1:1">
-      <c r="A1278" s="4"/>
-    </row>
-    <row r="1279" spans="1:1">
-      <c r="A1279" s="4"/>
-    </row>
-    <row r="1280" spans="1:1">
-      <c r="A1280" s="4"/>
-    </row>
-    <row r="1281" spans="1:1">
-      <c r="A1281" s="4"/>
-    </row>
-    <row r="1282" spans="1:1">
-      <c r="A1282" s="4"/>
-    </row>
-    <row r="1283" spans="1:1">
-      <c r="A1283" s="4"/>
-    </row>
-    <row r="1284" spans="1:1">
-      <c r="A1284" s="4"/>
-    </row>
-    <row r="1285" spans="1:1">
-      <c r="A1285" s="4"/>
-    </row>
-    <row r="1286" spans="1:1">
-      <c r="A1286" s="4"/>
-    </row>
-    <row r="1287" spans="1:1">
-      <c r="A1287" s="4"/>
-    </row>
-    <row r="1288" spans="1:1">
-      <c r="A1288" s="4"/>
-    </row>
-    <row r="1289" spans="1:1">
-      <c r="A1289" s="4"/>
-    </row>
-    <row r="1290" spans="1:1">
-      <c r="A1290" s="4"/>
-    </row>
-    <row r="1291" spans="1:1">
-      <c r="A1291" s="4"/>
-    </row>
-    <row r="1292" spans="1:1">
-      <c r="A1292" s="4"/>
-    </row>
-    <row r="1293" spans="1:1">
-      <c r="A1293" s="4"/>
-    </row>
-    <row r="1294" spans="1:1">
-      <c r="A1294" s="4"/>
-    </row>
-    <row r="1295" spans="1:1">
-      <c r="A1295" s="4"/>
-    </row>
-    <row r="1296" spans="1:1">
-      <c r="A1296" s="4"/>
-    </row>
-    <row r="1297" spans="1:1">
-      <c r="A1297" s="4"/>
-    </row>
-    <row r="1298" spans="1:1">
-      <c r="A1298" s="4"/>
-    </row>
-    <row r="1299" spans="1:1">
-      <c r="A1299" s="4"/>
-    </row>
-    <row r="1300" spans="1:1">
-      <c r="A1300" s="4"/>
-    </row>
-    <row r="1301" spans="1:1">
-      <c r="A1301" s="4"/>
-    </row>
-    <row r="1302" spans="1:1">
-      <c r="A1302" s="4"/>
-    </row>
-    <row r="1303" spans="1:1">
-      <c r="A1303" s="4"/>
-    </row>
-    <row r="1304" spans="1:1">
-      <c r="A1304" s="4"/>
-    </row>
-    <row r="1305" spans="1:1">
-      <c r="A1305" s="4"/>
-    </row>
-    <row r="1306" spans="1:1">
-      <c r="A1306" s="4"/>
-    </row>
-    <row r="1307" spans="1:1">
-      <c r="A1307" s="4"/>
-    </row>
-    <row r="1308" spans="1:1">
-      <c r="A1308" s="4"/>
-    </row>
-    <row r="1309" spans="1:1">
-      <c r="A1309" s="4"/>
-    </row>
-    <row r="1310" spans="1:1">
-      <c r="A1310" s="4"/>
-    </row>
-    <row r="1311" spans="1:1">
-      <c r="A1311" s="4"/>
-    </row>
-    <row r="1312" spans="1:1">
-      <c r="A1312" s="4"/>
-    </row>
-    <row r="1313" spans="1:1">
-      <c r="A1313" s="4"/>
-    </row>
-    <row r="1314" spans="1:1">
-      <c r="A1314" s="4"/>
-    </row>
-    <row r="1315" spans="1:1">
-      <c r="A1315" s="4"/>
-    </row>
-    <row r="1316" spans="1:1">
-      <c r="A1316" s="4"/>
-    </row>
-    <row r="1317" spans="1:1">
-      <c r="A1317" s="4"/>
-    </row>
-    <row r="1318" spans="1:1">
-      <c r="A1318" s="4"/>
-    </row>
-    <row r="1319" spans="1:1">
-      <c r="A1319" s="4"/>
-    </row>
-    <row r="1320" spans="1:1">
-      <c r="A1320" s="4"/>
-    </row>
-    <row r="1321" spans="1:1">
-      <c r="A1321" s="4"/>
-    </row>
-    <row r="1322" spans="1:1">
-      <c r="A1322" s="4"/>
-    </row>
-    <row r="1323" spans="1:1">
-      <c r="A1323" s="4"/>
-    </row>
-    <row r="1324" spans="1:1">
-      <c r="A1324" s="4"/>
-    </row>
-    <row r="1325" spans="1:1">
-      <c r="A1325" s="4"/>
-    </row>
-    <row r="1326" spans="1:1">
-      <c r="A1326" s="4"/>
-    </row>
-    <row r="1327" spans="1:1">
-      <c r="A1327" s="4"/>
-    </row>
-    <row r="1328" spans="1:1">
-      <c r="A1328" s="4"/>
-    </row>
-    <row r="1329" spans="1:1">
-      <c r="A1329" s="4"/>
-    </row>
-    <row r="1330" spans="1:1">
-      <c r="A1330" s="4"/>
-    </row>
-    <row r="1331" spans="1:1">
-      <c r="A1331" s="4"/>
-    </row>
-    <row r="1332" spans="1:1">
-      <c r="A1332" s="4"/>
-    </row>
-    <row r="1333" spans="1:1">
-      <c r="A1333" s="4"/>
-    </row>
-    <row r="1334" spans="1:1">
-      <c r="A1334" s="4"/>
-    </row>
-    <row r="1335" spans="1:1">
-      <c r="A1335" s="4"/>
-    </row>
-    <row r="1336" spans="1:1">
-      <c r="A1336" s="4"/>
-    </row>
-    <row r="1337" spans="1:1">
-      <c r="A1337" s="4"/>
-    </row>
-    <row r="1338" spans="1:1">
-      <c r="A1338" s="4"/>
-    </row>
-    <row r="1339" spans="1:1">
-      <c r="A1339" s="4"/>
-    </row>
-    <row r="1340" spans="1:1">
-      <c r="A1340" s="4"/>
-    </row>
-    <row r="1341" spans="1:1">
-      <c r="A1341" s="4"/>
-    </row>
-    <row r="1342" spans="1:1">
-      <c r="A1342" s="4"/>
-    </row>
-    <row r="1343" spans="1:1">
-      <c r="A1343" s="4"/>
-    </row>
-    <row r="1344" spans="1:1">
-      <c r="A1344" s="4"/>
-    </row>
-    <row r="1345" spans="1:1">
-      <c r="A1345" s="4"/>
-    </row>
-    <row r="1346" spans="1:1">
-      <c r="A1346" s="4"/>
-    </row>
-    <row r="1347" spans="1:1">
-      <c r="A1347" s="4"/>
-    </row>
-    <row r="1348" spans="1:1">
-      <c r="A1348" s="4"/>
-    </row>
-    <row r="1349" spans="1:1">
-      <c r="A1349" s="4"/>
-    </row>
-    <row r="1350" spans="1:1">
-      <c r="A1350" s="4"/>
-    </row>
-    <row r="1351" spans="1:1">
-      <c r="A1351" s="4"/>
-    </row>
-    <row r="1352" spans="1:1">
-      <c r="A1352" s="4"/>
-    </row>
-    <row r="1353" spans="1:1">
-      <c r="A1353" s="4"/>
-    </row>
-    <row r="1354" spans="1:1">
-      <c r="A1354" s="4"/>
-    </row>
-    <row r="1355" spans="1:1">
-      <c r="A1355" s="4"/>
-    </row>
-    <row r="1356" spans="1:1">
-      <c r="A1356" s="4"/>
-    </row>
-    <row r="1357" spans="1:1">
-      <c r="A1357" s="4"/>
+    <row r="847" ht="14.25" spans="1:1">
+      <c r="A847" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" ht="14.25" spans="1:1">
+      <c r="A848" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" ht="14.25" spans="1:1">
+      <c r="A849" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" ht="14.25" spans="1:1">
+      <c r="A850" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" ht="14.25" spans="1:1">
+      <c r="A851" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" ht="14.25" spans="1:1">
+      <c r="A852" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" ht="14.25" spans="1:1">
+      <c r="A853" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" ht="14.25" spans="1:1">
+      <c r="A854" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" ht="14.25" spans="1:1">
+      <c r="A855" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" ht="14.25" spans="1:1">
+      <c r="A856" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" ht="14.25" spans="1:1">
+      <c r="A857" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" ht="14.25" spans="1:1">
+      <c r="A858" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" ht="14.25" spans="1:1">
+      <c r="A859" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" ht="14.25" spans="1:1">
+      <c r="A860" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" ht="14.25" spans="1:1">
+      <c r="A861" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" ht="14.25" spans="1:1">
+      <c r="A862" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" ht="14.25" spans="1:1">
+      <c r="A863" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" ht="14.25" spans="1:1">
+      <c r="A864" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" ht="14.25" spans="1:1">
+      <c r="A865" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" ht="14.25" spans="1:1">
+      <c r="A866" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" ht="14.25" spans="1:1">
+      <c r="A867" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" ht="14.25" spans="1:1">
+      <c r="A868" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" ht="14.25" spans="1:1">
+      <c r="A869" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" ht="14.25" spans="1:1">
+      <c r="A870" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" ht="14.25" spans="1:1">
+      <c r="A871" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" ht="14.25" spans="1:1">
+      <c r="A872" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" ht="14.25" spans="1:1">
+      <c r="A873" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" ht="14.25" spans="1:1">
+      <c r="A874" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" ht="14.25" spans="1:1">
+      <c r="A875" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" ht="14.25" spans="1:1">
+      <c r="A876" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" ht="14.25" spans="1:1">
+      <c r="A877" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" ht="14.25" spans="1:1">
+      <c r="A878" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" ht="14.25" spans="1:1">
+      <c r="A879" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" ht="14.25" spans="1:1">
+      <c r="A880" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" ht="14.25" spans="1:1">
+      <c r="A881" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" ht="14.25" spans="1:1">
+      <c r="A882" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" ht="14.25" spans="1:1">
+      <c r="A883" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" ht="14.25" spans="1:1">
+      <c r="A884" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" ht="14.25" spans="1:1">
+      <c r="A885" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" ht="14.25" spans="1:1">
+      <c r="A886" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" ht="14.25" spans="1:1">
+      <c r="A887" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" ht="14.25" spans="1:1">
+      <c r="A888" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" ht="14.25" spans="1:1">
+      <c r="A889" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" ht="14.25" spans="1:1">
+      <c r="A890" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" ht="14.25" spans="1:1">
+      <c r="A891" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" ht="14.25" spans="1:1">
+      <c r="A892" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" ht="14.25" spans="1:1">
+      <c r="A893" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" ht="14.25" spans="1:1">
+      <c r="A894" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" ht="14.25" spans="1:1">
+      <c r="A895" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" ht="14.25" spans="1:1">
+      <c r="A896" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" ht="14.25" spans="1:1">
+      <c r="A897" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" ht="14.25" spans="1:1">
+      <c r="A898" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" ht="14.25" spans="1:1">
+      <c r="A899" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" ht="14.25" spans="1:1">
+      <c r="A900" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" ht="14.25" spans="1:1">
+      <c r="A901" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" ht="14.25" spans="1:1">
+      <c r="A902" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" ht="14.25" spans="1:1">
+      <c r="A903" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" ht="14.25" spans="1:1">
+      <c r="A904" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" ht="14.25" spans="1:1">
+      <c r="A905" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" ht="14.25" spans="1:1">
+      <c r="A906" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" ht="14.25" spans="1:1">
+      <c r="A907" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" ht="14.25" spans="1:1">
+      <c r="A908" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" ht="14.25" spans="1:1">
+      <c r="A909" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" ht="14.25" spans="1:1">
+      <c r="A910" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" ht="14.25" spans="1:1">
+      <c r="A911" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" ht="14.25" spans="1:1">
+      <c r="A912" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" ht="14.25" spans="1:1">
+      <c r="A913" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" ht="14.25" spans="1:1">
+      <c r="A914" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" ht="14.25" spans="1:1">
+      <c r="A915" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" ht="14.25" spans="1:1">
+      <c r="A916" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" ht="14.25" spans="1:1">
+      <c r="A917" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" ht="14.25" spans="1:1">
+      <c r="A918" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" ht="14.25" spans="1:1">
+      <c r="A919" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" ht="14.25" spans="1:1">
+      <c r="A920" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" ht="14.25" spans="1:1">
+      <c r="A921" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" ht="14.25" spans="1:1">
+      <c r="A922" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" ht="14.25" spans="1:1">
+      <c r="A923" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" ht="14.25" spans="1:1">
+      <c r="A924" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" ht="14.25" spans="1:1">
+      <c r="A925" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" ht="14.25" spans="1:1">
+      <c r="A926" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" ht="14.25" spans="1:1">
+      <c r="A927" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" ht="14.25" spans="1:1">
+      <c r="A928" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" ht="14.25" spans="1:1">
+      <c r="A929" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" ht="14.25" spans="1:1">
+      <c r="A930" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" ht="14.25" spans="1:1">
+      <c r="A931" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" ht="14.25" spans="1:1">
+      <c r="A932" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" ht="14.25" spans="1:1">
+      <c r="A933" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" ht="14.25" spans="1:1">
+      <c r="A934" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" ht="14.25" spans="1:1">
+      <c r="A935" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" ht="14.25" spans="1:1">
+      <c r="A936" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" ht="14.25" spans="1:1">
+      <c r="A937" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" ht="14.25" spans="1:1">
+      <c r="A938" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" ht="14.25" spans="1:1">
+      <c r="A939" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" ht="14.25" spans="1:1">
+      <c r="A940" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" ht="14.25" spans="1:1">
+      <c r="A941" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" ht="14.25" spans="1:1">
+      <c r="A942" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" ht="14.25" spans="1:1">
+      <c r="A943" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" ht="14.25" spans="1:1">
+      <c r="A944" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" ht="14.25" spans="1:1">
+      <c r="A945" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="946" ht="14.25" spans="1:1">
+      <c r="A946" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" ht="14.25" spans="1:1">
+      <c r="A947" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" ht="14.25" spans="1:1">
+      <c r="A948" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" ht="14.25" spans="1:1">
+      <c r="A949" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" ht="14.25" spans="1:1">
+      <c r="A950" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" ht="14.25" spans="1:1">
+      <c r="A951" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" ht="14.25" spans="1:1">
+      <c r="A952" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" ht="14.25" spans="1:1">
+      <c r="A953" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" ht="14.25" spans="1:1">
+      <c r="A954" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" ht="14.25" spans="1:1">
+      <c r="A955" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" ht="14.25" spans="1:1">
+      <c r="A956" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" ht="14.25" spans="1:1">
+      <c r="A957" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" ht="14.25" spans="1:1">
+      <c r="A958" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" ht="14.25" spans="1:1">
+      <c r="A959" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" ht="14.25" spans="1:1">
+      <c r="A960" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" ht="14.25" spans="1:1">
+      <c r="A961" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" ht="14.25" spans="1:1">
+      <c r="A962" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" ht="14.25" spans="1:1">
+      <c r="A963" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" ht="14.25" spans="1:1">
+      <c r="A964" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" ht="14.25" spans="1:1">
+      <c r="A965" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" ht="14.25" spans="1:1">
+      <c r="A966" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" ht="14.25" spans="1:1">
+      <c r="A967" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" ht="14.25" spans="1:1">
+      <c r="A968" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" ht="14.25" spans="1:1">
+      <c r="A969" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" ht="14.25" spans="1:1">
+      <c r="A970" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" ht="14.25" spans="1:1">
+      <c r="A971" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" ht="14.25" spans="1:1">
+      <c r="A972" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" ht="14.25" spans="1:1">
+      <c r="A973" s="4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" ht="14.25" spans="1:1">
+      <c r="A974" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" ht="14.25" spans="1:1">
+      <c r="A975" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" ht="14.25" spans="1:1">
+      <c r="A976" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" ht="14.25" spans="1:1">
+      <c r="A977" s="4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" ht="14.25" spans="1:1">
+      <c r="A978" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" ht="14.25" spans="1:1">
+      <c r="A979" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" ht="14.25" spans="1:1">
+      <c r="A980" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" ht="14.25" spans="1:1">
+      <c r="A981" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" ht="14.25" spans="1:1">
+      <c r="A982" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" ht="14.25" spans="1:1">
+      <c r="A983" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" ht="14.25" spans="1:1">
+      <c r="A984" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" ht="14.25" spans="1:1">
+      <c r="A985" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" ht="14.25" spans="1:1">
+      <c r="A986" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" ht="14.25" spans="1:1">
+      <c r="A987" s="4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" ht="14.25" spans="1:1">
+      <c r="A988" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" ht="14.25" spans="1:1">
+      <c r="A989" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" ht="14.25" spans="1:1">
+      <c r="A990" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" ht="14.25" spans="1:1">
+      <c r="A991" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" ht="14.25" spans="1:1">
+      <c r="A992" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="993" ht="14.25" spans="1:1">
+      <c r="A993" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="994" ht="14.25" spans="1:1">
+      <c r="A994" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="995" ht="14.25" spans="1:1">
+      <c r="A995" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="996" ht="14.25" spans="1:1">
+      <c r="A996" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="997" ht="14.25" spans="1:1">
+      <c r="A997" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="998" ht="14.25" spans="1:1">
+      <c r="A998" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="999" ht="14.25" spans="1:1">
+      <c r="A999" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1000" ht="14.25" spans="1:1">
+      <c r="A1000" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1001" ht="14.25" spans="1:1">
+      <c r="A1001" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1002" ht="14.25" spans="1:1">
+      <c r="A1002" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1003" ht="14.25" spans="1:1">
+      <c r="A1003" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1004" ht="14.25" spans="1:1">
+      <c r="A1004" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1005" ht="14.25" spans="1:1">
+      <c r="A1005" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1006" ht="14.25" spans="1:1">
+      <c r="A1006" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1007" ht="14.25" spans="1:1">
+      <c r="A1007" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1008" ht="14.25" spans="1:1">
+      <c r="A1008" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1009" ht="14.25" spans="1:1">
+      <c r="A1009" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1010" ht="14.25" spans="1:1">
+      <c r="A1010" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1011" ht="14.25" spans="1:1">
+      <c r="A1011" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1012" ht="14.25" spans="1:1">
+      <c r="A1012" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1013" ht="14.25" spans="1:1">
+      <c r="A1013" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1014" ht="14.25" spans="1:1">
+      <c r="A1014" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1015" ht="14.25" spans="1:1">
+      <c r="A1015" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1016" ht="14.25" spans="1:1">
+      <c r="A1016" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1017" ht="14.25" spans="1:1">
+      <c r="A1017" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1018" ht="14.25" spans="1:1">
+      <c r="A1018" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1019" ht="14.25" spans="1:1">
+      <c r="A1019" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1020" ht="14.25" spans="1:1">
+      <c r="A1020" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1021" ht="14.25" spans="1:1">
+      <c r="A1021" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1022" ht="14.25" spans="1:1">
+      <c r="A1022" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1023" ht="14.25" spans="1:1">
+      <c r="A1023" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1024" ht="14.25" spans="1:1">
+      <c r="A1024" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1025" ht="14.25" spans="1:1">
+      <c r="A1025" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1026" ht="14.25" spans="1:1">
+      <c r="A1026" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1027" ht="14.25" spans="1:1">
+      <c r="A1027" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1028" ht="14.25" spans="1:1">
+      <c r="A1028" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1029" ht="14.25" spans="1:1">
+      <c r="A1029" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1030" ht="14.25" spans="1:1">
+      <c r="A1030" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1031" ht="14.25" spans="1:1">
+      <c r="A1031" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1032" ht="14.25" spans="1:1">
+      <c r="A1032" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1033" ht="14.25" spans="1:1">
+      <c r="A1033" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1034" ht="14.25" spans="1:1">
+      <c r="A1034" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1035" ht="14.25" spans="1:1">
+      <c r="A1035" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1036" ht="14.25" spans="1:1">
+      <c r="A1036" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1037" ht="14.25" spans="1:1">
+      <c r="A1037" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1038" ht="14.25" spans="1:1">
+      <c r="A1038" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1039" ht="14.25" spans="1:1">
+      <c r="A1039" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1040" ht="14.25" spans="1:1">
+      <c r="A1040" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1041" ht="14.25" spans="1:1">
+      <c r="A1041" s="4" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1042" ht="14.25" spans="1:1">
+      <c r="A1042" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1043" ht="14.25" spans="1:1">
+      <c r="A1043" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1044" ht="14.25" spans="1:1">
+      <c r="A1044" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1045" ht="14.25" spans="1:1">
+      <c r="A1045" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1046" ht="14.25" spans="1:1">
+      <c r="A1046" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1047" ht="14.25" spans="1:1">
+      <c r="A1047" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1048" ht="14.25" spans="1:1">
+      <c r="A1048" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1049" ht="14.25" spans="1:1">
+      <c r="A1049" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1050" ht="14.25" spans="1:1">
+      <c r="A1050" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1051" ht="14.25" spans="1:1">
+      <c r="A1051" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1052" ht="14.25" spans="1:1">
+      <c r="A1052" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1053" ht="14.25" spans="1:1">
+      <c r="A1053" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1054" ht="14.25" spans="1:1">
+      <c r="A1054" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1055" ht="14.25" spans="1:1">
+      <c r="A1055" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1056" ht="14.25" spans="1:1">
+      <c r="A1056" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1057" ht="14.25" spans="1:1">
+      <c r="A1057" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1058" ht="14.25" spans="1:1">
+      <c r="A1058" s="4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1059" ht="14.25" spans="1:1">
+      <c r="A1059" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1060" ht="14.25" spans="1:1">
+      <c r="A1060" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1061" ht="14.25" spans="1:1">
+      <c r="A1061" s="4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1062" ht="14.25" spans="1:1">
+      <c r="A1062" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1063" ht="14.25" spans="1:1">
+      <c r="A1063" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1064" ht="14.25" spans="1:1">
+      <c r="A1064" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1065" ht="14.25" spans="1:1">
+      <c r="A1065" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1066" ht="14.25" spans="1:1">
+      <c r="A1066" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1067" ht="14.25" spans="1:1">
+      <c r="A1067" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1068" ht="14.25" spans="1:1">
+      <c r="A1068" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1069" ht="14.25" spans="1:1">
+      <c r="A1069" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1070" ht="14.25" spans="1:1">
+      <c r="A1070" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1071" ht="14.25" spans="1:1">
+      <c r="A1071" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1072" ht="14.25" spans="1:1">
+      <c r="A1072" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1073" ht="14.25" spans="1:1">
+      <c r="A1073" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1074" ht="14.25" spans="1:1">
+      <c r="A1074" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1075" ht="14.25" spans="1:1">
+      <c r="A1075" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1076" ht="14.25" spans="1:1">
+      <c r="A1076" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1077" ht="14.25" spans="1:1">
+      <c r="A1077" s="4" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1078" ht="14.25" spans="1:1">
+      <c r="A1078" s="4" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1079" ht="14.25" spans="1:1">
+      <c r="A1079" s="4" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1080" ht="14.25" spans="1:1">
+      <c r="A1080" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1081" ht="14.25" spans="1:1">
+      <c r="A1081" s="4" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1082" ht="14.25" spans="1:1">
+      <c r="A1082" s="4" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1083" ht="14.25" spans="1:1">
+      <c r="A1083" s="4" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1084" ht="14.25" spans="1:1">
+      <c r="A1084" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1085" ht="14.25" spans="1:1">
+      <c r="A1085" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1086" ht="14.25" spans="1:1">
+      <c r="A1086" s="4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1087" ht="14.25" spans="1:1">
+      <c r="A1087" s="4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1088" ht="14.25" spans="1:1">
+      <c r="A1088" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1089" ht="14.25" spans="1:1">
+      <c r="A1089" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1090" ht="14.25" spans="1:1">
+      <c r="A1090" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1091" ht="14.25" spans="1:1">
+      <c r="A1091" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1092" ht="14.25" spans="1:1">
+      <c r="A1092" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1093" ht="14.25" spans="1:1">
+      <c r="A1093" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1094" ht="14.25" spans="1:1">
+      <c r="A1094" s="4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1095" ht="14.25" spans="1:1">
+      <c r="A1095" s="4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1096" ht="14.25" spans="1:1">
+      <c r="A1096" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1097" ht="14.25" spans="1:1">
+      <c r="A1097" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1098" ht="14.25" spans="1:1">
+      <c r="A1098" s="4" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1099" ht="14.25" spans="1:1">
+      <c r="A1099" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1100" ht="14.25" spans="1:1">
+      <c r="A1100" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1101" ht="14.25" spans="1:1">
+      <c r="A1101" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1102" ht="14.25" spans="1:1">
+      <c r="A1102" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1103" ht="14.25" spans="1:1">
+      <c r="A1103" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1104" ht="14.25" spans="1:1">
+      <c r="A1104" s="4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1105" ht="14.25" spans="1:1">
+      <c r="A1105" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1106" ht="14.25" spans="1:1">
+      <c r="A1106" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1107" ht="14.25" spans="1:1">
+      <c r="A1107" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1108" ht="14.25" spans="1:1">
+      <c r="A1108" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1109" ht="14.25" spans="1:1">
+      <c r="A1109" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1110" ht="14.25" spans="1:1">
+      <c r="A1110" s="4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1111" ht="14.25" spans="1:1">
+      <c r="A1111" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1112" ht="14.25" spans="1:1">
+      <c r="A1112" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1113" ht="14.25" spans="1:1">
+      <c r="A1113" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1114" ht="14.25" spans="1:1">
+      <c r="A1114" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1115" ht="14.25" spans="1:1">
+      <c r="A1115" s="4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1116" ht="14.25" spans="1:1">
+      <c r="A1116" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1117" ht="14.25" spans="1:1">
+      <c r="A1117" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1118" ht="14.25" spans="1:1">
+      <c r="A1118" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1119" ht="14.25" spans="1:1">
+      <c r="A1119" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1120" ht="14.25" spans="1:1">
+      <c r="A1120" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1121" ht="14.25" spans="1:1">
+      <c r="A1121" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1122" ht="14.25" spans="1:1">
+      <c r="A1122" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1123" ht="14.25" spans="1:1">
+      <c r="A1123" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1124" ht="14.25" spans="1:1">
+      <c r="A1124" s="4" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1125" ht="14.25" spans="1:1">
+      <c r="A1125" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1126" ht="14.25" spans="1:1">
+      <c r="A1126" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1127" ht="14.25" spans="1:1">
+      <c r="A1127" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1128" ht="14.25" spans="1:1">
+      <c r="A1128" s="4" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1129" ht="14.25" spans="1:1">
+      <c r="A1129" s="4" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1130" ht="14.25" spans="1:1">
+      <c r="A1130" s="4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1131" ht="14.25" spans="1:1">
+      <c r="A1131" s="4" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1132" ht="14.25" spans="1:1">
+      <c r="A1132" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1133" ht="14.25" spans="1:1">
+      <c r="A1133" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1134" ht="14.25" spans="1:1">
+      <c r="A1134" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1135" ht="14.25" spans="1:1">
+      <c r="A1135" s="4" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1136" ht="14.25" spans="1:1">
+      <c r="A1136" s="4" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1137" ht="14.25" spans="1:1">
+      <c r="A1137" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1138" ht="14.25" spans="1:1">
+      <c r="A1138" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1139" ht="14.25" spans="1:1">
+      <c r="A1139" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1140" ht="14.25" spans="1:1">
+      <c r="A1140" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1141" ht="14.25" spans="1:1">
+      <c r="A1141" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1142" ht="14.25" spans="1:1">
+      <c r="A1142" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1143" ht="14.25" spans="1:1">
+      <c r="A1143" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1144" ht="14.25" spans="1:1">
+      <c r="A1144" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1145" ht="14.25" spans="1:1">
+      <c r="A1145" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1146" ht="14.25" spans="1:1">
+      <c r="A1146" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1147" ht="14.25" spans="1:1">
+      <c r="A1147" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1148" ht="14.25" spans="1:1">
+      <c r="A1148" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1149" ht="14.25" spans="1:1">
+      <c r="A1149" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1150" ht="14.25" spans="1:1">
+      <c r="A1150" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1151" ht="14.25" spans="1:1">
+      <c r="A1151" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1152" ht="14.25" spans="1:1">
+      <c r="A1152" s="4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1153" ht="14.25" spans="1:1">
+      <c r="A1153" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1154" ht="14.25" spans="1:1">
+      <c r="A1154" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1155" ht="14.25" spans="1:1">
+      <c r="A1155" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1156" ht="14.25" spans="1:1">
+      <c r="A1156" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1157" ht="14.25" spans="1:1">
+      <c r="A1157" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1158" ht="14.25" spans="1:1">
+      <c r="A1158" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1159" ht="14.25" spans="1:1">
+      <c r="A1159" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1160" ht="14.25" spans="1:1">
+      <c r="A1160" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1161" ht="14.25" spans="1:1">
+      <c r="A1161" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1162" ht="14.25" spans="1:1">
+      <c r="A1162" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1163" ht="14.25" spans="1:1">
+      <c r="A1163" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1164" ht="14.25" spans="1:1">
+      <c r="A1164" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1165" ht="14.25" spans="1:1">
+      <c r="A1165" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1166" ht="14.25" spans="1:1">
+      <c r="A1166" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1167" ht="14.25" spans="1:1">
+      <c r="A1167" s="4" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1168" ht="14.25" spans="1:1">
+      <c r="A1168" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1169" ht="14.25" spans="1:1">
+      <c r="A1169" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1170" ht="14.25" spans="1:1">
+      <c r="A1170" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1171" ht="14.25" spans="1:1">
+      <c r="A1171" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1172" ht="14.25" spans="1:1">
+      <c r="A1172" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1173" ht="14.25" spans="1:1">
+      <c r="A1173" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1174" ht="14.25" spans="1:1">
+      <c r="A1174" s="4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1175" ht="14.25" spans="1:1">
+      <c r="A1175" s="4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1176" ht="14.25" spans="1:1">
+      <c r="A1176" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1177" ht="14.25" spans="1:1">
+      <c r="A1177" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1178" ht="14.25" spans="1:1">
+      <c r="A1178" s="4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1179" ht="14.25" spans="1:1">
+      <c r="A1179" s="4" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1180" ht="14.25" spans="1:1">
+      <c r="A1180" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1181" ht="14.25" spans="1:1">
+      <c r="A1181" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1182" ht="14.25" spans="1:1">
+      <c r="A1182" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1183" ht="14.25" spans="1:1">
+      <c r="A1183" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1184" ht="14.25" spans="1:1">
+      <c r="A1184" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1185" ht="14.25" spans="1:1">
+      <c r="A1185" s="4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1186" ht="14.25" spans="1:1">
+      <c r="A1186" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1187" ht="14.25" spans="1:1">
+      <c r="A1187" s="4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1188" ht="14.25" spans="1:1">
+      <c r="A1188" s="4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1189" ht="14.25" spans="1:1">
+      <c r="A1189" s="4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1190" ht="14.25" spans="1:1">
+      <c r="A1190" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1191" ht="14.25" spans="1:1">
+      <c r="A1191" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1192" ht="14.25" spans="1:1">
+      <c r="A1192" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1193" ht="14.25" spans="1:1">
+      <c r="A1193" s="4" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1194" ht="14.25" spans="1:1">
+      <c r="A1194" s="4" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1195" ht="14.25" spans="1:1">
+      <c r="A1195" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1196" ht="14.25" spans="1:1">
+      <c r="A1196" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1197" ht="14.25" spans="1:1">
+      <c r="A1197" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1198" ht="14.25" spans="1:1">
+      <c r="A1198" s="4" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1199" ht="14.25" spans="1:1">
+      <c r="A1199" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1200" ht="14.25" spans="1:1">
+      <c r="A1200" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1201" ht="14.25" spans="1:1">
+      <c r="A1201" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1202" ht="14.25" spans="1:1">
+      <c r="A1202" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1203" ht="14.25" spans="1:1">
+      <c r="A1203" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1204" ht="14.25" spans="1:1">
+      <c r="A1204" s="4" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1205" ht="14.25" spans="1:1">
+      <c r="A1205" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1206" ht="14.25" spans="1:1">
+      <c r="A1206" s="4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1207" ht="14.25" spans="1:1">
+      <c r="A1207" s="4" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1208" ht="14.25" spans="1:1">
+      <c r="A1208" s="4" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1209" ht="14.25" spans="1:1">
+      <c r="A1209" s="4" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1210" ht="14.25" spans="1:1">
+      <c r="A1210" s="4" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1211" ht="14.25" spans="1:1">
+      <c r="A1211" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" ht="14.25" spans="1:1">
+      <c r="A1212" s="4" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1213" ht="14.25" spans="1:1">
+      <c r="A1213" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1214" ht="14.25" spans="1:1">
+      <c r="A1214" s="4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1215" ht="14.25" spans="1:1">
+      <c r="A1215" s="4" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1216" ht="14.25" spans="1:1">
+      <c r="A1216" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1217" ht="14.25" spans="1:1">
+      <c r="A1217" s="4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1218" ht="14.25" spans="1:1">
+      <c r="A1218" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1219" ht="14.25" spans="1:1">
+      <c r="A1219" s="4" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1220" ht="14.25" spans="1:1">
+      <c r="A1220" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1221" ht="14.25" spans="1:1">
+      <c r="A1221" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1222" ht="14.25" spans="1:1">
+      <c r="A1222" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1223" ht="14.25" spans="1:1">
+      <c r="A1223" s="4" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1224" ht="14.25" spans="1:1">
+      <c r="A1224" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1225" ht="14.25" spans="1:1">
+      <c r="A1225" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1226" ht="14.25" spans="1:1">
+      <c r="A1226" s="4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1227" ht="14.25" spans="1:1">
+      <c r="A1227" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1228" ht="14.25" spans="1:1">
+      <c r="A1228" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1229" ht="14.25" spans="1:1">
+      <c r="A1229" s="4" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1230" ht="14.25" spans="1:1">
+      <c r="A1230" s="4" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1231" ht="14.25" spans="1:1">
+      <c r="A1231" s="4" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1232" ht="14.25" spans="1:1">
+      <c r="A1232" s="4" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1233" ht="14.25" spans="1:1">
+      <c r="A1233" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1234" ht="14.25" spans="1:1">
+      <c r="A1234" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1235" ht="14.25" spans="1:1">
+      <c r="A1235" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1236" ht="14.25" spans="1:1">
+      <c r="A1236" s="4" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1237" ht="14.25" spans="1:1">
+      <c r="A1237" s="4" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1238" ht="14.25" spans="1:1">
+      <c r="A1238" s="4" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1239" ht="14.25" spans="1:1">
+      <c r="A1239" s="4" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1240" ht="14.25" spans="1:1">
+      <c r="A1240" s="4" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1241" ht="14.25" spans="1:1">
+      <c r="A1241" s="4" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1242" ht="14.25" spans="1:1">
+      <c r="A1242" s="4" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1243" ht="14.25" spans="1:1">
+      <c r="A1243" s="4" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1244" ht="14.25" spans="1:1">
+      <c r="A1244" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1245" ht="14.25" spans="1:1">
+      <c r="A1245" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1246" ht="14.25" spans="1:1">
+      <c r="A1246" s="4" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1247" ht="14.25" spans="1:1">
+      <c r="A1247" s="4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1248" ht="14.25" spans="1:1">
+      <c r="A1248" s="4" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1249" ht="14.25" spans="1:1">
+      <c r="A1249" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1250" ht="14.25" spans="1:1">
+      <c r="A1250" s="4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1251" ht="14.25" spans="1:1">
+      <c r="A1251" s="4" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1252" ht="14.25" spans="1:1">
+      <c r="A1252" s="4" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1253" ht="14.25" spans="1:1">
+      <c r="A1253" s="4" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1254" ht="14.25" spans="1:1">
+      <c r="A1254" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1255" ht="14.25" spans="1:1">
+      <c r="A1255" s="4" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1256" ht="14.25" spans="1:1">
+      <c r="A1256" s="4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1257" ht="14.25" spans="1:1">
+      <c r="A1257" s="4" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1258" ht="14.25" spans="1:1">
+      <c r="A1258" s="4" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1259" ht="14.25" spans="1:1">
+      <c r="A1259" s="4" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1260" ht="14.25" spans="1:1">
+      <c r="A1260" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1261" ht="14.25" spans="1:1">
+      <c r="A1261" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1262" ht="14.25" spans="1:1">
+      <c r="A1262" s="4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1263" ht="14.25" spans="1:1">
+      <c r="A1263" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1264" ht="14.25" spans="1:1">
+      <c r="A1264" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1265" ht="14.25" spans="1:1">
+      <c r="A1265" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1266" ht="14.25" spans="1:1">
+      <c r="A1266" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1267" ht="14.25" spans="1:1">
+      <c r="A1267" s="4" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1268" ht="14.25" spans="1:1">
+      <c r="A1268" s="4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1269" ht="14.25" spans="1:1">
+      <c r="A1269" s="4" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1270" ht="14.25" spans="1:1">
+      <c r="A1270" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1271" ht="14.25" spans="1:1">
+      <c r="A1271" s="4" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1272" ht="14.25" spans="1:1">
+      <c r="A1272" s="4" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1273" ht="14.25" spans="1:1">
+      <c r="A1273" s="4" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1274" ht="14.25" spans="1:1">
+      <c r="A1274" s="4" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1275" ht="14.25" spans="1:1">
+      <c r="A1275" s="4" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1276" ht="14.25" spans="1:1">
+      <c r="A1276" s="4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1277" ht="14.25" spans="1:1">
+      <c r="A1277" s="4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1278" ht="14.25" spans="1:1">
+      <c r="A1278" s="4" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1279" ht="14.25" spans="1:1">
+      <c r="A1279" s="4" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1280" ht="14.25" spans="1:1">
+      <c r="A1280" s="4" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1281" ht="14.25" spans="1:1">
+      <c r="A1281" s="4" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1282" ht="14.25" spans="1:1">
+      <c r="A1282" s="4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1283" ht="14.25" spans="1:1">
+      <c r="A1283" s="4" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1284" ht="14.25" spans="1:1">
+      <c r="A1284" s="4" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1285" ht="14.25" spans="1:1">
+      <c r="A1285" s="4" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1286" ht="14.25" spans="1:1">
+      <c r="A1286" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1287" ht="14.25" spans="1:1">
+      <c r="A1287" s="4" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1288" ht="14.25" spans="1:1">
+      <c r="A1288" s="4" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1289" ht="14.25" spans="1:1">
+      <c r="A1289" s="4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1290" ht="14.25" spans="1:1">
+      <c r="A1290" s="4" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1291" ht="14.25" spans="1:1">
+      <c r="A1291" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1292" ht="14.25" spans="1:1">
+      <c r="A1292" s="4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1293" ht="14.25" spans="1:1">
+      <c r="A1293" s="4" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1294" ht="14.25" spans="1:1">
+      <c r="A1294" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1295" ht="14.25" spans="1:1">
+      <c r="A1295" s="4" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1296" ht="14.25" spans="1:1">
+      <c r="A1296" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1297" ht="14.25" spans="1:1">
+      <c r="A1297" s="4" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1298" ht="14.25" spans="1:1">
+      <c r="A1298" s="4" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1299" ht="14.25" spans="1:1">
+      <c r="A1299" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1300" ht="14.25" spans="1:1">
+      <c r="A1300" s="4" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1301" ht="14.25" spans="1:1">
+      <c r="A1301" s="4" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1302" ht="14.25" spans="1:1">
+      <c r="A1302" s="4" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1303" ht="14.25" spans="1:1">
+      <c r="A1303" s="4" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1304" ht="14.25" spans="1:1">
+      <c r="A1304" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1305" ht="14.25" spans="1:1">
+      <c r="A1305" s="4" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1306" ht="14.25" spans="1:1">
+      <c r="A1306" s="4" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1307" ht="14.25" spans="1:1">
+      <c r="A1307" s="4" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1308" ht="14.25" spans="1:1">
+      <c r="A1308" s="4" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1309" ht="14.25" spans="1:1">
+      <c r="A1309" s="4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1310" ht="14.25" spans="1:1">
+      <c r="A1310" s="4" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1311" ht="14.25" spans="1:1">
+      <c r="A1311" s="4" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1312" ht="14.25" spans="1:1">
+      <c r="A1312" s="4" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1313" ht="14.25" spans="1:1">
+      <c r="A1313" s="4" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1314" ht="14.25" spans="1:1">
+      <c r="A1314" s="4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1315" ht="14.25" spans="1:1">
+      <c r="A1315" s="4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1316" ht="14.25" spans="1:1">
+      <c r="A1316" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1317" ht="14.25" spans="1:1">
+      <c r="A1317" s="4" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1318" ht="14.25" spans="1:1">
+      <c r="A1318" s="4" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1319" ht="14.25" spans="1:1">
+      <c r="A1319" s="4" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1320" ht="14.25" spans="1:1">
+      <c r="A1320" s="4" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1321" ht="14.25" spans="1:1">
+      <c r="A1321" s="4" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1322" ht="14.25" spans="1:1">
+      <c r="A1322" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1323" ht="14.25" spans="1:1">
+      <c r="A1323" s="4" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1324" ht="14.25" spans="1:1">
+      <c r="A1324" s="4" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1325" ht="14.25" spans="1:1">
+      <c r="A1325" s="4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1326" ht="14.25" spans="1:1">
+      <c r="A1326" s="4" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1327" ht="14.25" spans="1:1">
+      <c r="A1327" s="4" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1328" ht="14.25" spans="1:1">
+      <c r="A1328" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1329" ht="14.25" spans="1:1">
+      <c r="A1329" s="4" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1330" ht="14.25" spans="1:1">
+      <c r="A1330" s="4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1331" ht="14.25" spans="1:1">
+      <c r="A1331" s="4" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1332" ht="14.25" spans="1:1">
+      <c r="A1332" s="4" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1333" ht="14.25" spans="1:1">
+      <c r="A1333" s="4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1334" ht="14.25" spans="1:1">
+      <c r="A1334" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1335" ht="14.25" spans="1:1">
+      <c r="A1335" s="4" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1336" ht="14.25" spans="1:1">
+      <c r="A1336" s="4" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1337" ht="14.25" spans="1:1">
+      <c r="A1337" s="4" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1338" ht="14.25" spans="1:1">
+      <c r="A1338" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1339" ht="14.25" spans="1:1">
+      <c r="A1339" s="4" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1340" ht="14.25" spans="1:1">
+      <c r="A1340" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1341" ht="14.25" spans="1:1">
+      <c r="A1341" s="4" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1342" ht="14.25" spans="1:1">
+      <c r="A1342" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1343" ht="14.25" spans="1:1">
+      <c r="A1343" s="4" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1344" ht="14.25" spans="1:1">
+      <c r="A1344" s="4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1345" ht="14.25" spans="1:1">
+      <c r="A1345" s="4" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1346" ht="14.25" spans="1:1">
+      <c r="A1346" s="4" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1347" ht="14.25" spans="1:1">
+      <c r="A1347" s="4" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1348" ht="14.25" spans="1:1">
+      <c r="A1348" s="4" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1349" ht="14.25" spans="1:1">
+      <c r="A1349" s="4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1350" ht="14.25" spans="1:1">
+      <c r="A1350" s="4" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1351" ht="14.25" spans="1:1">
+      <c r="A1351" s="4" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1352" ht="14.25" spans="1:1">
+      <c r="A1352" s="4" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1353" ht="14.25" spans="1:1">
+      <c r="A1353" s="4" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1354" ht="14.25" spans="1:1">
+      <c r="A1354" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1355" ht="14.25" spans="1:1">
+      <c r="A1355" s="4" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1356" ht="14.25" spans="1:1">
+      <c r="A1356" s="4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1357" ht="14.25" spans="1:1">
+      <c r="A1357" s="4" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1358" ht="14.25" spans="1:1">
+      <c r="A1358" s="4" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1359" ht="14.25" spans="1:1">
+      <c r="A1359" s="4" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1360" ht="14.25" spans="1:1">
+      <c r="A1360" s="4" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1361" ht="14.25" spans="1:1">
+      <c r="A1361" s="4" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1362" ht="14.25" spans="1:1">
+      <c r="A1362" s="4" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1363" ht="14.25" spans="1:1">
+      <c r="A1363" s="4" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1364" ht="14.25" spans="1:1">
+      <c r="A1364" s="4" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1365" ht="14.25" spans="1:1">
+      <c r="A1365" s="4" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1366" ht="14.25" spans="1:1">
+      <c r="A1366" s="4" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1367" ht="14.25" spans="1:1">
+      <c r="A1367" s="4" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1368" ht="14.25" spans="1:1">
+      <c r="A1368" s="4" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1369" ht="14.25" spans="1:1">
+      <c r="A1369" s="4" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1370" ht="14.25" spans="1:1">
+      <c r="A1370" s="4" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1371" ht="14.25" spans="1:1">
+      <c r="A1371" s="4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1372" ht="14.25" spans="1:1">
+      <c r="A1372" s="4" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1373" ht="14.25" spans="1:1">
+      <c r="A1373" s="4" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1374" ht="14.25" spans="1:1">
+      <c r="A1374" s="4" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1375" ht="14.25" spans="1:1">
+      <c r="A1375" s="4" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1376" ht="14.25" spans="1:1">
+      <c r="A1376" s="4" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1377" ht="14.25" spans="1:1">
+      <c r="A1377" s="4" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1378" ht="14.25" spans="1:1">
+      <c r="A1378" s="4" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1379" ht="14.25" spans="1:1">
+      <c r="A1379" s="4" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1380" ht="14.25" spans="1:1">
+      <c r="A1380" s="4" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1381" ht="14.25" spans="1:1">
+      <c r="A1381" s="4" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1382" ht="14.25" spans="1:1">
+      <c r="A1382" s="4" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1383" ht="14.25" spans="1:1">
+      <c r="A1383" s="4" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1384" ht="14.25" spans="1:1">
+      <c r="A1384" s="4" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1385" ht="14.25" spans="1:1">
+      <c r="A1385" s="4" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1386" ht="14.25" spans="1:1">
+      <c r="A1386" s="4" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1387" ht="14.25" spans="1:1">
+      <c r="A1387" s="4" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1388" ht="14.25" spans="1:1">
+      <c r="A1388" s="4" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1389" ht="14.25" spans="1:1">
+      <c r="A1389" s="4" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1390" ht="14.25" spans="1:1">
+      <c r="A1390" s="4" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1391" ht="14.25" spans="1:1">
+      <c r="A1391" s="4" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1392" ht="14.25" spans="1:1">
+      <c r="A1392" s="4" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1393" ht="14.25" spans="1:1">
+      <c r="A1393" s="4" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1394" ht="14.25" spans="1:1">
+      <c r="A1394" s="4" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1395" ht="14.25" spans="1:1">
+      <c r="A1395" s="4" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1396" ht="14.25" spans="1:1">
+      <c r="A1396" s="4" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1397" ht="14.25" spans="1:1">
+      <c r="A1397" s="4" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1398" ht="14.25" spans="1:1">
+      <c r="A1398" s="4" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1399" ht="14.25" spans="1:1">
+      <c r="A1399" s="4" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1400" ht="14.25" spans="1:1">
+      <c r="A1400" s="4" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1401" ht="14.25" spans="1:1">
+      <c r="A1401" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1402" ht="14.25" spans="1:1">
+      <c r="A1402" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1403" ht="14.25" spans="1:1">
+      <c r="A1403" s="4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1404" ht="14.25" spans="1:1">
+      <c r="A1404" s="4" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1405" ht="14.25" spans="1:1">
+      <c r="A1405" s="4" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1406" ht="14.25" spans="1:1">
+      <c r="A1406" s="4" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1407" ht="14.25" spans="1:1">
+      <c r="A1407" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1408" ht="14.25" spans="1:1">
+      <c r="A1408" s="4" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1409" ht="14.25" spans="1:1">
+      <c r="A1409" s="4" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1410" ht="14.25" spans="1:1">
+      <c r="A1410" s="4" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1411" ht="14.25" spans="1:1">
+      <c r="A1411" s="4" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1412" ht="14.25" spans="1:1">
+      <c r="A1412" s="4" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1413" ht="14.25" spans="1:1">
+      <c r="A1413" s="4" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1414" ht="14.25" spans="1:1">
+      <c r="A1414" s="4" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1415" ht="14.25" spans="1:1">
+      <c r="A1415" s="4" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1416" ht="14.25" spans="1:1">
+      <c r="A1416" s="4" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1417" ht="14.25" spans="1:1">
+      <c r="A1417" s="4" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1418" ht="14.25" spans="1:1">
+      <c r="A1418" s="4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1419" ht="14.25" spans="1:1">
+      <c r="A1419" s="4" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1420" ht="14.25" spans="1:1">
+      <c r="A1420" s="4" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1421" ht="14.25" spans="1:1">
+      <c r="A1421" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1422" ht="14.25" spans="1:1">
+      <c r="A1422" s="4" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1423" ht="14.25" spans="1:1">
+      <c r="A1423" s="4" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1424" ht="14.25" spans="1:1">
+      <c r="A1424" s="4" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1425" ht="14.25" spans="1:1">
+      <c r="A1425" s="4" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1426" ht="14.25" spans="1:1">
+      <c r="A1426" s="4" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1427" ht="14.25" spans="1:1">
+      <c r="A1427" s="4" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1428" ht="14.25" spans="1:1">
+      <c r="A1428" s="4" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1429" ht="14.25" spans="1:1">
+      <c r="A1429" s="4" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1430" ht="14.25" spans="1:1">
+      <c r="A1430" s="4" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1431" ht="14.25" spans="1:1">
+      <c r="A1431" s="4" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1432" ht="14.25" spans="1:1">
+      <c r="A1432" s="4" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1433" ht="14.25" spans="1:1">
+      <c r="A1433" s="4" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1434" ht="14.25" spans="1:1">
+      <c r="A1434" s="4" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1435" ht="14.25" spans="1:1">
+      <c r="A1435" s="4" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1436" ht="14.25" spans="1:1">
+      <c r="A1436" s="4" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1437" ht="14.25" spans="1:1">
+      <c r="A1437" s="4" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1438" ht="14.25" spans="1:1">
+      <c r="A1438" s="4" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1439" ht="14.25" spans="1:1">
+      <c r="A1439" s="4" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1440" ht="14.25" spans="1:1">
+      <c r="A1440" s="4" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1441" ht="14.25" spans="1:1">
+      <c r="A1441" s="4" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1442" ht="14.25" spans="1:1">
+      <c r="A1442" s="4" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1443" ht="14.25" spans="1:1">
+      <c r="A1443" s="4" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1444" ht="14.25" spans="1:1">
+      <c r="A1444" s="4" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1445" ht="14.25" spans="1:1">
+      <c r="A1445" s="4" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1446" ht="14.25" spans="1:1">
+      <c r="A1446" s="4" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1447" ht="14.25" spans="1:1">
+      <c r="A1447" s="4" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1448" ht="14.25" spans="1:1">
+      <c r="A1448" s="4" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1449" ht="14.25" spans="1:1">
+      <c r="A1449" s="4" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1450" ht="14.25" spans="1:1">
+      <c r="A1450" s="4" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1451" ht="14.25" spans="1:1">
+      <c r="A1451" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1452" ht="14.25" spans="1:1">
+      <c r="A1452" s="4" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1453" ht="14.25" spans="1:1">
+      <c r="A1453" s="4" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1454" ht="14.25" spans="1:1">
+      <c r="A1454" s="4" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1455" ht="14.25" spans="1:1">
+      <c r="A1455" s="4" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1456" ht="14.25" spans="1:1">
+      <c r="A1456" s="4" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1457" ht="14.25" spans="1:1">
+      <c r="A1457" s="4" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1458" ht="14.25" spans="1:1">
+      <c r="A1458" s="4" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1459" ht="14.25" spans="1:1">
+      <c r="A1459" s="4" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1460" ht="14.25" spans="1:1">
+      <c r="A1460" s="4" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1461" ht="14.25" spans="1:1">
+      <c r="A1461" s="4" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1462" ht="14.25" spans="1:1">
+      <c r="A1462" s="4" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1463" ht="14.25" spans="1:1">
+      <c r="A1463" s="4" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1464" ht="14.25" spans="1:1">
+      <c r="A1464" s="4" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1465" ht="14.25" spans="1:1">
+      <c r="A1465" s="4" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1466" ht="14.25" spans="1:1">
+      <c r="A1466" s="4" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1467" ht="14.25" spans="1:1">
+      <c r="A1467" s="4" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1468" ht="14.25" spans="1:1">
+      <c r="A1468" s="4" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1469" ht="14.25" spans="1:1">
+      <c r="A1469" s="4" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1470" ht="14.25" spans="1:1">
+      <c r="A1470" s="4" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1471" ht="14.25" spans="1:1">
+      <c r="A1471" s="4" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1472" ht="14.25" spans="1:1">
+      <c r="A1472" s="4" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1473" ht="14.25" spans="1:1">
+      <c r="A1473" s="4" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1474" ht="14.25" spans="1:1">
+      <c r="A1474" s="4" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1475" ht="14.25" spans="1:1">
+      <c r="A1475" s="4" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1476" ht="14.25" spans="1:1">
+      <c r="A1476" s="4" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1477" ht="14.25" spans="1:1">
+      <c r="A1477" s="4" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1478" ht="14.25" spans="1:1">
+      <c r="A1478" s="4" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1479" ht="14.25" spans="1:1">
+      <c r="A1479" s="4" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1480" ht="14.25" spans="1:1">
+      <c r="A1480" s="4" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1481" ht="14.25" spans="1:1">
+      <c r="A1481" s="4" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1482" ht="14.25" spans="1:1">
+      <c r="A1482" s="4" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1483" ht="14.25" spans="1:1">
+      <c r="A1483" s="4" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1484" ht="14.25" spans="1:1">
+      <c r="A1484" s="4" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1485" ht="14.25" spans="1:1">
+      <c r="A1485" s="4" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1486" ht="14.25" spans="1:1">
+      <c r="A1486" s="4" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1487" ht="14.25" spans="1:1">
+      <c r="A1487" s="4" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1488" ht="14.25" spans="1:1">
+      <c r="A1488" s="4" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1489" ht="14.25" spans="1:1">
+      <c r="A1489" s="4" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1490" ht="14.25" spans="1:1">
+      <c r="A1490" s="4" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1491" ht="14.25" spans="1:1">
+      <c r="A1491" s="4" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1492" ht="14.25" spans="1:1">
+      <c r="A1492" s="4" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1493" ht="14.25" spans="1:1">
+      <c r="A1493" s="4" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1494" ht="14.25" spans="1:1">
+      <c r="A1494" s="4" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1495" ht="14.25" spans="1:1">
+      <c r="A1495" s="4" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1496" ht="14.25" spans="1:1">
+      <c r="A1496" s="4" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1497" ht="14.25" spans="1:1">
+      <c r="A1497" s="4" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1498" ht="14.25" spans="1:1">
+      <c r="A1498" s="4" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1499" ht="14.25" spans="1:1">
+      <c r="A1499" s="4" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1500" ht="14.25" spans="1:1">
+      <c r="A1500" s="4" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1501" ht="14.25" spans="1:1">
+      <c r="A1501" s="4" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1502" ht="14.25" spans="1:1">
+      <c r="A1502" s="4" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1503" ht="14.25" spans="1:1">
+      <c r="A1503" s="4" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1504" ht="14.25" spans="1:1">
+      <c r="A1504" s="4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1505" ht="14.25" spans="1:1">
+      <c r="A1505" s="4" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1506" ht="14.25" spans="1:1">
+      <c r="A1506" s="4" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1507" ht="14.25" spans="1:1">
+      <c r="A1507" s="4" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1508" ht="14.25" spans="1:1">
+      <c r="A1508" s="4" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1509" ht="14.25" spans="1:1">
+      <c r="A1509" s="4" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1510" ht="14.25" spans="1:1">
+      <c r="A1510" s="4" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1511" ht="14.25" spans="1:1">
+      <c r="A1511" s="4" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1512" ht="14.25" spans="1:1">
+      <c r="A1512" s="4" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1513" ht="14.25" spans="1:1">
+      <c r="A1513" s="4" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1514" ht="14.25" spans="1:1">
+      <c r="A1514" s="4" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1515" ht="14.25" spans="1:1">
+      <c r="A1515" s="4" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1516" ht="14.25" spans="1:1">
+      <c r="A1516" s="4" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1517" ht="14.25" spans="1:1">
+      <c r="A1517" s="4" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1518" ht="14.25" spans="1:1">
+      <c r="A1518" s="4" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1519" ht="14.25" spans="1:1">
+      <c r="A1519" s="4" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1520" ht="14.25" spans="1:1">
+      <c r="A1520" s="4" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1521" ht="14.25" spans="1:1">
+      <c r="A1521" s="4" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1522" ht="14.25" spans="1:1">
+      <c r="A1522" s="4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1523" ht="14.25" spans="1:1">
+      <c r="A1523" s="4" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1524" ht="14.25" spans="1:1">
+      <c r="A1524" s="4" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1525" ht="14.25" spans="1:1">
+      <c r="A1525" s="4" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1526" ht="14.25" spans="1:1">
+      <c r="A1526" s="4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1527" ht="14.25" spans="1:1">
+      <c r="A1527" s="4" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1528" ht="14.25" spans="1:1">
+      <c r="A1528" s="4" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1529" ht="14.25" spans="1:1">
+      <c r="A1529" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1530" ht="14.25" spans="1:1">
+      <c r="A1530" s="4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1531" ht="14.25" spans="1:1">
+      <c r="A1531" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1532" ht="14.25" spans="1:1">
+      <c r="A1532" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1533" ht="14.25" spans="1:1">
+      <c r="A1533" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1534" ht="14.25" spans="1:1">
+      <c r="A1534" s="4" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1535" ht="14.25" spans="1:1">
+      <c r="A1535" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1">
+      <c r="A1536"/>
+    </row>
+    <row r="1537" spans="1:1">
+      <c r="A1537"/>
+    </row>
+    <row r="1538" spans="1:1">
+      <c r="A1538"/>
+    </row>
+    <row r="1539" spans="1:1">
+      <c r="A1539"/>
+    </row>
+    <row r="1540" spans="1:1">
+      <c r="A1540"/>
+    </row>
+    <row r="1541" spans="1:1">
+      <c r="A1541"/>
+    </row>
+    <row r="1542" spans="1:1">
+      <c r="A1542"/>
+    </row>
+    <row r="1543" spans="1:1">
+      <c r="A1543"/>
+    </row>
+    <row r="1544" spans="1:1">
+      <c r="A1544"/>
+    </row>
+    <row r="1545" spans="1:1">
+      <c r="A1545"/>
+    </row>
+    <row r="1546" spans="1:1">
+      <c r="A1546"/>
+    </row>
+    <row r="1547" spans="1:1">
+      <c r="A1547"/>
+    </row>
+    <row r="1548" spans="1:1">
+      <c r="A1548"/>
+    </row>
+    <row r="1549" spans="1:1">
+      <c r="A1549"/>
+    </row>
+    <row r="1550" spans="1:1">
+      <c r="A1550"/>
+    </row>
+    <row r="1551" spans="1:1">
+      <c r="A1551"/>
+    </row>
+    <row r="1552" spans="1:1">
+      <c r="A1552"/>
+    </row>
+    <row r="1553" spans="1:1">
+      <c r="A1553"/>
+    </row>
+    <row r="1554" spans="1:1">
+      <c r="A1554"/>
+    </row>
+    <row r="1555" spans="1:1">
+      <c r="A1555"/>
+    </row>
+    <row r="1556" spans="1:1">
+      <c r="A1556"/>
+    </row>
+    <row r="1557" spans="1:1">
+      <c r="A1557"/>
+    </row>
+    <row r="1558" spans="1:1">
+      <c r="A1558"/>
+    </row>
+    <row r="1559" spans="1:1">
+      <c r="A1559"/>
+    </row>
+    <row r="1560" spans="1:1">
+      <c r="A1560"/>
+    </row>
+    <row r="1561" spans="1:1">
+      <c r="A1561"/>
+    </row>
+    <row r="1562" spans="1:1">
+      <c r="A1562"/>
+    </row>
+    <row r="1563" spans="1:1">
+      <c r="A1563"/>
+    </row>
+    <row r="1564" spans="1:1">
+      <c r="A1564"/>
+    </row>
+    <row r="1565" spans="1:1">
+      <c r="A1565"/>
+    </row>
+    <row r="1566" spans="1:1">
+      <c r="A1566"/>
+    </row>
+    <row r="1567" spans="1:1">
+      <c r="A1567"/>
+    </row>
+    <row r="1568" spans="1:1">
+      <c r="A1568"/>
+    </row>
+    <row r="1569" spans="1:1">
+      <c r="A1569"/>
+    </row>
+    <row r="1570" spans="1:1">
+      <c r="A1570"/>
+    </row>
+    <row r="1571" spans="1:1">
+      <c r="A1571"/>
+    </row>
+    <row r="1572" spans="1:1">
+      <c r="A1572"/>
+    </row>
+    <row r="1573" spans="1:1">
+      <c r="A1573"/>
+    </row>
+    <row r="1574" spans="1:1">
+      <c r="A1574"/>
+    </row>
+    <row r="1575" spans="1:1">
+      <c r="A1575"/>
+    </row>
+    <row r="1576" spans="1:1">
+      <c r="A1576"/>
+    </row>
+    <row r="1577" spans="1:1">
+      <c r="A1577"/>
+    </row>
+    <row r="1578" spans="1:1">
+      <c r="A1578"/>
+    </row>
+    <row r="1579" spans="1:1">
+      <c r="A1579"/>
+    </row>
+    <row r="1580" spans="1:1">
+      <c r="A1580"/>
+    </row>
+    <row r="1581" spans="1:1">
+      <c r="A1581"/>
+    </row>
+    <row r="1582" spans="1:1">
+      <c r="A1582"/>
+    </row>
+    <row r="1583" spans="1:1">
+      <c r="A1583"/>
+    </row>
+    <row r="1584" spans="1:1">
+      <c r="A1584"/>
+    </row>
+    <row r="1585" spans="1:1">
+      <c r="A1585"/>
+    </row>
+    <row r="1586" spans="1:1">
+      <c r="A1586"/>
+    </row>
+    <row r="1587" spans="1:1">
+      <c r="A1587"/>
+    </row>
+    <row r="1588" spans="1:1">
+      <c r="A1588"/>
+    </row>
+    <row r="1589" spans="1:1">
+      <c r="A1589"/>
+    </row>
+    <row r="1590" spans="1:1">
+      <c r="A1590"/>
+    </row>
+    <row r="1591" spans="1:1">
+      <c r="A1591"/>
+    </row>
+    <row r="1592" spans="1:1">
+      <c r="A1592"/>
+    </row>
+    <row r="1593" spans="1:1">
+      <c r="A1593"/>
+    </row>
+    <row r="1594" spans="1:1">
+      <c r="A1594"/>
+    </row>
+    <row r="1595" spans="1:1">
+      <c r="A1595"/>
+    </row>
+    <row r="1596" spans="1:1">
+      <c r="A1596"/>
+    </row>
+    <row r="1597" spans="1:1">
+      <c r="A1597"/>
+    </row>
+    <row r="1598" spans="1:1">
+      <c r="A1598"/>
+    </row>
+    <row r="1599" spans="1:1">
+      <c r="A1599"/>
+    </row>
+    <row r="1600" spans="1:1">
+      <c r="A1600"/>
+    </row>
+    <row r="1601" spans="1:1">
+      <c r="A1601"/>
+    </row>
+    <row r="1602" spans="1:1">
+      <c r="A1602"/>
+    </row>
+    <row r="1603" spans="1:1">
+      <c r="A1603"/>
+    </row>
+    <row r="1604" spans="1:1">
+      <c r="A1604"/>
+    </row>
+    <row r="1605" spans="1:1">
+      <c r="A1605"/>
+    </row>
+    <row r="1606" spans="1:1">
+      <c r="A1606"/>
+    </row>
+    <row r="1607" spans="1:1">
+      <c r="A1607"/>
+    </row>
+    <row r="1608" spans="1:1">
+      <c r="A1608"/>
+    </row>
+    <row r="1609" spans="1:1">
+      <c r="A1609"/>
+    </row>
+    <row r="1610" spans="1:1">
+      <c r="A1610"/>
+    </row>
+    <row r="1611" spans="1:1">
+      <c r="A1611"/>
+    </row>
+    <row r="1612" spans="1:1">
+      <c r="A1612"/>
+    </row>
+    <row r="1613" spans="1:1">
+      <c r="A1613"/>
+    </row>
+    <row r="1614" spans="1:1">
+      <c r="A1614"/>
+    </row>
+    <row r="1615" spans="1:1">
+      <c r="A1615"/>
+    </row>
+    <row r="1616" spans="1:1">
+      <c r="A1616"/>
+    </row>
+    <row r="1617" spans="1:1">
+      <c r="A1617"/>
+    </row>
+    <row r="1618" spans="1:1">
+      <c r="A1618"/>
+    </row>
+    <row r="1619" spans="1:1">
+      <c r="A1619"/>
+    </row>
+    <row r="1620" spans="1:1">
+      <c r="A1620"/>
+    </row>
+    <row r="1621" spans="1:1">
+      <c r="A1621"/>
+    </row>
+    <row r="1622" spans="1:1">
+      <c r="A1622"/>
+    </row>
+    <row r="1623" spans="1:1">
+      <c r="A1623"/>
+    </row>
+    <row r="1624" spans="1:1">
+      <c r="A1624"/>
+    </row>
+    <row r="1625" spans="1:1">
+      <c r="A1625"/>
+    </row>
+    <row r="1626" spans="1:1">
+      <c r="A1626"/>
+    </row>
+    <row r="1627" spans="1:1">
+      <c r="A1627"/>
+    </row>
+    <row r="1628" spans="1:1">
+      <c r="A1628"/>
+    </row>
+    <row r="1629" spans="1:1">
+      <c r="A1629"/>
+    </row>
+    <row r="1630" spans="1:1">
+      <c r="A1630"/>
+    </row>
+    <row r="1631" spans="1:1">
+      <c r="A1631"/>
+    </row>
+    <row r="1632" spans="1:1">
+      <c r="A1632"/>
+    </row>
+    <row r="1633" spans="1:1">
+      <c r="A1633"/>
+    </row>
+    <row r="1634" spans="1:1">
+      <c r="A1634"/>
+    </row>
+    <row r="1635" spans="1:1">
+      <c r="A1635"/>
+    </row>
+    <row r="1636" spans="1:1">
+      <c r="A1636"/>
+    </row>
+    <row r="1637" spans="1:1">
+      <c r="A1637"/>
+    </row>
+    <row r="1638" spans="1:1">
+      <c r="A1638"/>
+    </row>
+    <row r="1639" spans="1:1">
+      <c r="A1639"/>
+    </row>
+    <row r="1640" spans="1:1">
+      <c r="A1640"/>
+    </row>
+    <row r="1641" spans="1:1">
+      <c r="A1641"/>
+    </row>
+    <row r="1642" spans="1:1">
+      <c r="A1642"/>
+    </row>
+    <row r="1643" spans="1:1">
+      <c r="A1643"/>
+    </row>
+    <row r="1644" spans="1:1">
+      <c r="A1644"/>
+    </row>
+    <row r="1645" spans="1:1">
+      <c r="A1645"/>
+    </row>
+    <row r="1646" spans="1:1">
+      <c r="A1646"/>
+    </row>
+    <row r="1647" spans="1:1">
+      <c r="A1647"/>
+    </row>
+    <row r="1648" spans="1:1">
+      <c r="A1648"/>
+    </row>
+    <row r="1649" spans="1:1">
+      <c r="A1649"/>
+    </row>
+    <row r="1650" spans="1:1">
+      <c r="A1650"/>
+    </row>
+    <row r="1651" spans="1:1">
+      <c r="A1651"/>
+    </row>
+    <row r="1652" spans="1:1">
+      <c r="A1652"/>
+    </row>
+    <row r="1653" spans="1:1">
+      <c r="A1653"/>
+    </row>
+    <row r="1654" spans="1:1">
+      <c r="A1654"/>
+    </row>
+    <row r="1655" spans="1:1">
+      <c r="A1655"/>
+    </row>
+    <row r="1656" spans="1:1">
+      <c r="A1656"/>
+    </row>
+    <row r="1657" spans="1:1">
+      <c r="A1657"/>
+    </row>
+    <row r="1658" spans="1:1">
+      <c r="A1658"/>
+    </row>
+    <row r="1659" spans="1:1">
+      <c r="A1659"/>
+    </row>
+    <row r="1660" spans="1:1">
+      <c r="A1660"/>
+    </row>
+    <row r="1661" spans="1:1">
+      <c r="A1661"/>
+    </row>
+    <row r="1662" spans="1:1">
+      <c r="A1662"/>
+    </row>
+    <row r="1663" spans="1:1">
+      <c r="A1663"/>
+    </row>
+    <row r="1664" spans="1:1">
+      <c r="A1664"/>
+    </row>
+    <row r="1665" spans="1:1">
+      <c r="A1665"/>
+    </row>
+    <row r="1666" spans="1:1">
+      <c r="A1666"/>
+    </row>
+    <row r="1667" spans="1:1">
+      <c r="A1667"/>
+    </row>
+    <row r="1668" spans="1:1">
+      <c r="A1668"/>
+    </row>
+    <row r="1669" spans="1:1">
+      <c r="A1669"/>
+    </row>
+    <row r="1670" spans="1:1">
+      <c r="A1670"/>
+    </row>
+    <row r="1671" spans="1:1">
+      <c r="A1671"/>
+    </row>
+    <row r="1672" spans="1:1">
+      <c r="A1672"/>
+    </row>
+    <row r="1673" spans="1:1">
+      <c r="A1673"/>
+    </row>
+    <row r="1674" spans="1:1">
+      <c r="A1674"/>
+    </row>
+    <row r="1675" spans="1:1">
+      <c r="A1675"/>
+    </row>
+    <row r="1676" spans="1:1">
+      <c r="A1676"/>
+    </row>
+    <row r="1677" spans="1:1">
+      <c r="A1677"/>
+    </row>
+    <row r="1678" spans="1:1">
+      <c r="A1678"/>
+    </row>
+    <row r="1679" spans="1:1">
+      <c r="A1679"/>
+    </row>
+    <row r="1680" spans="1:1">
+      <c r="A1680"/>
+    </row>
+    <row r="1681" spans="1:1">
+      <c r="A1681"/>
+    </row>
+    <row r="1682" spans="1:1">
+      <c r="A1682"/>
+    </row>
+    <row r="1683" spans="1:1">
+      <c r="A1683"/>
+    </row>
+    <row r="1684" spans="1:1">
+      <c r="A1684"/>
+    </row>
+    <row r="1685" spans="1:1">
+      <c r="A1685"/>
+    </row>
+    <row r="1686" spans="1:1">
+      <c r="A1686"/>
+    </row>
+    <row r="1687" spans="1:1">
+      <c r="A1687"/>
+    </row>
+    <row r="1688" spans="1:1">
+      <c r="A1688"/>
+    </row>
+    <row r="1689" spans="1:1">
+      <c r="A1689"/>
+    </row>
+    <row r="1690" spans="1:1">
+      <c r="A1690"/>
+    </row>
+    <row r="1691" spans="1:1">
+      <c r="A1691"/>
+    </row>
+    <row r="1692" spans="1:1">
+      <c r="A1692"/>
+    </row>
+    <row r="1693" spans="1:1">
+      <c r="A1693"/>
+    </row>
+    <row r="1694" spans="1:1">
+      <c r="A1694"/>
+    </row>
+    <row r="1695" spans="1:1">
+      <c r="A1695"/>
+    </row>
+    <row r="1696" spans="1:1">
+      <c r="A1696"/>
+    </row>
+    <row r="1697" spans="1:1">
+      <c r="A1697"/>
+    </row>
+    <row r="1698" spans="1:1">
+      <c r="A1698"/>
+    </row>
+    <row r="1699" spans="1:1">
+      <c r="A1699"/>
+    </row>
+    <row r="1700" spans="1:1">
+      <c r="A1700"/>
+    </row>
+    <row r="1701" spans="1:1">
+      <c r="A1701"/>
+    </row>
+    <row r="1702" spans="1:1">
+      <c r="A1702"/>
+    </row>
+    <row r="1703" spans="1:1">
+      <c r="A1703"/>
+    </row>
+    <row r="1704" spans="1:1">
+      <c r="A1704"/>
+    </row>
+    <row r="1705" spans="1:1">
+      <c r="A1705"/>
+    </row>
+    <row r="1706" spans="1:1">
+      <c r="A1706"/>
+    </row>
+    <row r="1707" spans="1:1">
+      <c r="A1707"/>
+    </row>
+    <row r="1708" spans="1:1">
+      <c r="A1708"/>
+    </row>
+    <row r="1709" spans="1:1">
+      <c r="A1709"/>
+    </row>
+    <row r="1710" spans="1:1">
+      <c r="A1710"/>
+    </row>
+    <row r="1711" spans="1:1">
+      <c r="A1711"/>
+    </row>
+    <row r="1712" spans="1:1">
+      <c r="A1712"/>
+    </row>
+    <row r="1713" spans="1:1">
+      <c r="A1713"/>
+    </row>
+    <row r="1714" spans="1:1">
+      <c r="A1714"/>
+    </row>
+    <row r="1715" spans="1:1">
+      <c r="A1715"/>
+    </row>
+    <row r="1716" spans="1:1">
+      <c r="A1716"/>
+    </row>
+    <row r="1717" spans="1:1">
+      <c r="A1717"/>
+    </row>
+    <row r="1718" spans="1:1">
+      <c r="A1718"/>
+    </row>
+    <row r="1719" spans="1:1">
+      <c r="A1719"/>
+    </row>
+    <row r="1720" spans="1:1">
+      <c r="A1720"/>
+    </row>
+    <row r="1721" spans="1:1">
+      <c r="A1721"/>
+    </row>
+    <row r="1722" spans="1:1">
+      <c r="A1722"/>
+    </row>
+    <row r="1723" spans="1:1">
+      <c r="A1723"/>
+    </row>
+    <row r="1724" spans="1:1">
+      <c r="A1724"/>
+    </row>
+    <row r="1725" spans="1:1">
+      <c r="A1725"/>
+    </row>
+    <row r="1726" spans="1:1">
+      <c r="A1726"/>
+    </row>
+    <row r="1727" spans="1:1">
+      <c r="A1727"/>
+    </row>
+    <row r="1728" spans="1:1">
+      <c r="A1728"/>
+    </row>
+    <row r="1729" spans="1:1">
+      <c r="A1729"/>
+    </row>
+    <row r="1730" spans="1:1">
+      <c r="A1730"/>
+    </row>
+    <row r="1731" spans="1:1">
+      <c r="A1731"/>
+    </row>
+    <row r="1732" spans="1:1">
+      <c r="A1732"/>
+    </row>
+    <row r="1733" spans="1:1">
+      <c r="A1733"/>
+    </row>
+    <row r="1734" spans="1:1">
+      <c r="A1734"/>
+    </row>
+    <row r="1735" spans="1:1">
+      <c r="A1735"/>
+    </row>
+    <row r="1736" spans="1:1">
+      <c r="A1736"/>
+    </row>
+    <row r="1737" spans="1:1">
+      <c r="A1737"/>
+    </row>
+    <row r="1738" spans="1:1">
+      <c r="A1738"/>
+    </row>
+    <row r="1739" spans="1:1">
+      <c r="A1739"/>
+    </row>
+    <row r="1740" spans="1:1">
+      <c r="A1740"/>
+    </row>
+    <row r="1741" spans="1:1">
+      <c r="A1741"/>
+    </row>
+    <row r="1742" spans="1:1">
+      <c r="A1742"/>
+    </row>
+    <row r="1743" spans="1:1">
+      <c r="A1743"/>
+    </row>
+    <row r="1744" spans="1:1">
+      <c r="A1744"/>
+    </row>
+    <row r="1745" spans="1:1">
+      <c r="A1745"/>
+    </row>
+    <row r="1746" spans="1:1">
+      <c r="A1746"/>
+    </row>
+    <row r="1747" spans="1:1">
+      <c r="A1747"/>
+    </row>
+    <row r="1748" spans="1:1">
+      <c r="A1748"/>
+    </row>
+    <row r="1749" spans="1:1">
+      <c r="A1749"/>
+    </row>
+    <row r="1750" spans="1:1">
+      <c r="A1750"/>
+    </row>
+    <row r="1751" spans="1:1">
+      <c r="A1751"/>
+    </row>
+    <row r="1752" spans="1:1">
+      <c r="A1752"/>
+    </row>
+    <row r="1753" spans="1:1">
+      <c r="A1753"/>
+    </row>
+    <row r="1754" spans="1:1">
+      <c r="A1754"/>
+    </row>
+    <row r="1755" spans="1:1">
+      <c r="A1755"/>
+    </row>
+    <row r="1756" spans="1:1">
+      <c r="A1756"/>
+    </row>
+    <row r="1757" spans="1:1">
+      <c r="A1757"/>
+    </row>
+    <row r="1758" spans="1:1">
+      <c r="A1758"/>
+    </row>
+    <row r="1759" spans="1:1">
+      <c r="A1759"/>
+    </row>
+    <row r="1760" spans="1:1">
+      <c r="A1760"/>
+    </row>
+    <row r="1761" spans="1:1">
+      <c r="A1761"/>
+    </row>
+    <row r="1762" spans="1:1">
+      <c r="A1762"/>
+    </row>
+    <row r="1763" spans="1:1">
+      <c r="A1763"/>
+    </row>
+    <row r="1764" spans="1:1">
+      <c r="A1764"/>
+    </row>
+    <row r="1765" spans="1:1">
+      <c r="A1765"/>
+    </row>
+    <row r="1766" spans="1:1">
+      <c r="A1766"/>
+    </row>
+    <row r="1767" spans="1:1">
+      <c r="A1767"/>
+    </row>
+    <row r="1768" spans="1:1">
+      <c r="A1768"/>
+    </row>
+    <row r="1769" spans="1:1">
+      <c r="A1769"/>
+    </row>
+    <row r="1770" spans="1:1">
+      <c r="A1770"/>
+    </row>
+    <row r="1771" spans="1:1">
+      <c r="A1771"/>
+    </row>
+    <row r="1772" spans="1:1">
+      <c r="A1772"/>
+    </row>
+    <row r="1773" spans="1:1">
+      <c r="A1773"/>
+    </row>
+    <row r="1774" spans="1:1">
+      <c r="A1774"/>
+    </row>
+    <row r="1775" spans="1:1">
+      <c r="A1775"/>
+    </row>
+    <row r="1776" spans="1:1">
+      <c r="A1776"/>
+    </row>
+    <row r="1777" spans="1:1">
+      <c r="A1777"/>
+    </row>
+    <row r="1778" spans="1:1">
+      <c r="A1778"/>
+    </row>
+    <row r="1779" spans="1:1">
+      <c r="A1779"/>
+    </row>
+    <row r="1780" spans="1:1">
+      <c r="A1780"/>
+    </row>
+    <row r="1781" spans="1:1">
+      <c r="A1781"/>
+    </row>
+    <row r="1782" spans="1:1">
+      <c r="A1782"/>
+    </row>
+    <row r="1783" spans="1:1">
+      <c r="A1783"/>
+    </row>
+    <row r="1784" spans="1:1">
+      <c r="A1784"/>
+    </row>
+    <row r="1785" spans="1:1">
+      <c r="A1785"/>
+    </row>
+    <row r="1786" spans="1:1">
+      <c r="A1786"/>
+    </row>
+    <row r="1787" spans="1:1">
+      <c r="A1787"/>
+    </row>
+    <row r="1788" spans="1:1">
+      <c r="A1788"/>
+    </row>
+    <row r="1789" spans="1:1">
+      <c r="A1789"/>
+    </row>
+    <row r="1790" spans="1:1">
+      <c r="A1790"/>
+    </row>
+    <row r="1791" spans="1:1">
+      <c r="A1791"/>
+    </row>
+    <row r="1792" spans="1:1">
+      <c r="A1792"/>
+    </row>
+    <row r="1793" spans="1:1">
+      <c r="A1793"/>
+    </row>
+    <row r="1794" spans="1:1">
+      <c r="A1794"/>
+    </row>
+    <row r="1795" spans="1:1">
+      <c r="A1795"/>
+    </row>
+    <row r="1796" spans="1:1">
+      <c r="A1796"/>
+    </row>
+    <row r="1797" spans="1:1">
+      <c r="A1797"/>
+    </row>
+    <row r="1798" spans="1:1">
+      <c r="A1798"/>
+    </row>
+    <row r="1799" spans="1:1">
+      <c r="A1799"/>
+    </row>
+    <row r="1800" spans="1:1">
+      <c r="A1800"/>
+    </row>
+    <row r="1801" spans="1:1">
+      <c r="A1801"/>
+    </row>
+    <row r="1802" spans="1:1">
+      <c r="A1802"/>
+    </row>
+    <row r="1803" spans="1:1">
+      <c r="A1803"/>
+    </row>
+    <row r="1804" spans="1:1">
+      <c r="A1804"/>
+    </row>
+    <row r="1805" spans="1:1">
+      <c r="A1805"/>
+    </row>
+    <row r="1806" spans="1:1">
+      <c r="A1806"/>
+    </row>
+    <row r="1807" spans="1:1">
+      <c r="A1807"/>
+    </row>
+    <row r="1808" spans="1:1">
+      <c r="A1808"/>
+    </row>
+    <row r="1809" spans="1:1">
+      <c r="A1809"/>
+    </row>
+    <row r="1810" spans="1:1">
+      <c r="A1810"/>
+    </row>
+    <row r="1811" spans="1:1">
+      <c r="A1811"/>
+    </row>
+    <row r="1812" spans="1:1">
+      <c r="A1812"/>
+    </row>
+    <row r="1813" spans="1:1">
+      <c r="A1813"/>
+    </row>
+    <row r="1814" spans="1:1">
+      <c r="A1814"/>
+    </row>
+    <row r="1815" spans="1:1">
+      <c r="A1815"/>
+    </row>
+    <row r="1816" spans="1:1">
+      <c r="A1816"/>
+    </row>
+    <row r="1817" spans="1:1">
+      <c r="A1817"/>
+    </row>
+    <row r="1818" spans="1:1">
+      <c r="A1818"/>
+    </row>
+    <row r="1819" spans="1:1">
+      <c r="A1819"/>
+    </row>
+    <row r="1820" spans="1:1">
+      <c r="A1820"/>
+    </row>
+    <row r="1821" spans="1:1">
+      <c r="A1821"/>
+    </row>
+    <row r="1822" spans="1:1">
+      <c r="A1822"/>
+    </row>
+    <row r="1823" spans="1:1">
+      <c r="A1823"/>
+    </row>
+    <row r="1824" spans="1:1">
+      <c r="A1824"/>
+    </row>
+    <row r="1825" spans="1:1">
+      <c r="A1825"/>
+    </row>
+    <row r="1826" spans="1:1">
+      <c r="A1826"/>
+    </row>
+    <row r="1827" spans="1:1">
+      <c r="A1827"/>
+    </row>
+    <row r="1828" spans="1:1">
+      <c r="A1828"/>
+    </row>
+    <row r="1829" spans="1:1">
+      <c r="A1829"/>
+    </row>
+    <row r="1830" spans="1:1">
+      <c r="A1830"/>
+    </row>
+    <row r="1831" spans="1:1">
+      <c r="A1831"/>
+    </row>
+    <row r="1832" spans="1:1">
+      <c r="A1832"/>
+    </row>
+    <row r="1833" spans="1:1">
+      <c r="A1833"/>
+    </row>
+    <row r="1834" spans="1:1">
+      <c r="A1834"/>
+    </row>
+    <row r="1835" spans="1:1">
+      <c r="A1835"/>
+    </row>
+    <row r="1836" spans="1:1">
+      <c r="A1836"/>
+    </row>
+    <row r="1837" spans="1:1">
+      <c r="A1837"/>
+    </row>
+    <row r="1838" spans="1:1">
+      <c r="A1838"/>
+    </row>
+    <row r="1839" spans="1:1">
+      <c r="A1839"/>
+    </row>
+    <row r="1840" spans="1:1">
+      <c r="A1840"/>
+    </row>
+    <row r="1841" spans="1:1">
+      <c r="A1841"/>
+    </row>
+    <row r="1842" spans="1:1">
+      <c r="A1842"/>
+    </row>
+    <row r="1843" spans="1:1">
+      <c r="A1843"/>
+    </row>
+    <row r="1844" spans="1:1">
+      <c r="A1844"/>
+    </row>
+    <row r="1845" spans="1:1">
+      <c r="A1845"/>
+    </row>
+    <row r="1846" spans="1:1">
+      <c r="A1846"/>
+    </row>
+    <row r="1847" spans="1:1">
+      <c r="A1847"/>
+    </row>
+    <row r="1848" spans="1:1">
+      <c r="A1848"/>
+    </row>
+    <row r="1849" spans="1:1">
+      <c r="A1849"/>
+    </row>
+    <row r="1850" spans="1:1">
+      <c r="A1850"/>
+    </row>
+    <row r="1851" spans="1:1">
+      <c r="A1851"/>
+    </row>
+    <row r="1852" spans="1:1">
+      <c r="A1852"/>
+    </row>
+    <row r="1853" spans="1:1">
+      <c r="A1853"/>
+    </row>
+    <row r="1854" spans="1:1">
+      <c r="A1854"/>
+    </row>
+    <row r="1855" spans="1:1">
+      <c r="A1855"/>
+    </row>
+    <row r="1856" spans="1:1">
+      <c r="A1856"/>
+    </row>
+    <row r="1857" spans="1:1">
+      <c r="A1857"/>
+    </row>
+    <row r="1858" spans="1:1">
+      <c r="A1858"/>
+    </row>
+    <row r="1859" spans="1:1">
+      <c r="A1859"/>
+    </row>
+    <row r="1860" spans="1:1">
+      <c r="A1860"/>
+    </row>
+    <row r="1861" spans="1:1">
+      <c r="A1861"/>
+    </row>
+    <row r="1862" spans="1:1">
+      <c r="A1862"/>
+    </row>
+    <row r="1863" spans="1:1">
+      <c r="A1863"/>
+    </row>
+    <row r="1864" spans="1:1">
+      <c r="A1864"/>
+    </row>
+    <row r="1865" spans="1:1">
+      <c r="A1865"/>
+    </row>
+    <row r="1866" spans="1:1">
+      <c r="A1866"/>
+    </row>
+    <row r="1867" spans="1:1">
+      <c r="A1867"/>
+    </row>
+    <row r="1868" spans="1:1">
+      <c r="A1868"/>
+    </row>
+    <row r="1869" spans="1:1">
+      <c r="A1869"/>
+    </row>
+    <row r="1870" spans="1:1">
+      <c r="A1870"/>
+    </row>
+    <row r="1871" spans="1:1">
+      <c r="A1871"/>
+    </row>
+    <row r="1872" spans="1:1">
+      <c r="A1872"/>
+    </row>
+    <row r="1873" spans="1:1">
+      <c r="A1873"/>
+    </row>
+    <row r="1874" spans="1:1">
+      <c r="A1874"/>
+    </row>
+    <row r="1875" spans="1:1">
+      <c r="A1875"/>
+    </row>
+    <row r="1876" spans="1:1">
+      <c r="A1876"/>
+    </row>
+    <row r="1877" spans="1:1">
+      <c r="A1877"/>
+    </row>
+    <row r="1878" spans="1:1">
+      <c r="A1878"/>
+    </row>
+    <row r="1879" spans="1:1">
+      <c r="A1879"/>
+    </row>
+    <row r="1880" spans="1:1">
+      <c r="A1880"/>
+    </row>
+    <row r="1881" spans="1:1">
+      <c r="A1881"/>
+    </row>
+    <row r="1882" spans="1:1">
+      <c r="A1882"/>
+    </row>
+    <row r="1883" spans="1:1">
+      <c r="A1883"/>
+    </row>
+    <row r="1884" spans="1:1">
+      <c r="A1884"/>
+    </row>
+    <row r="1885" spans="1:1">
+      <c r="A1885"/>
+    </row>
+    <row r="1886" spans="1:1">
+      <c r="A1886"/>
+    </row>
+    <row r="1887" spans="1:1">
+      <c r="A1887"/>
+    </row>
+    <row r="1888" spans="1:1">
+      <c r="A1888"/>
+    </row>
+    <row r="1889" spans="1:1">
+      <c r="A1889"/>
+    </row>
+    <row r="1890" spans="1:1">
+      <c r="A1890"/>
+    </row>
+    <row r="1891" spans="1:1">
+      <c r="A1891"/>
+    </row>
+    <row r="1892" spans="1:1">
+      <c r="A1892"/>
+    </row>
+    <row r="1893" spans="1:1">
+      <c r="A1893"/>
+    </row>
+    <row r="1894" spans="1:1">
+      <c r="A1894"/>
+    </row>
+    <row r="1895" spans="1:1">
+      <c r="A1895"/>
+    </row>
+    <row r="1896" spans="1:1">
+      <c r="A1896"/>
+    </row>
+    <row r="1897" spans="1:1">
+      <c r="A1897"/>
+    </row>
+    <row r="1898" spans="1:1">
+      <c r="A1898"/>
+    </row>
+    <row r="1899" spans="1:1">
+      <c r="A1899"/>
+    </row>
+    <row r="1900" spans="1:1">
+      <c r="A1900"/>
+    </row>
+    <row r="1901" spans="1:1">
+      <c r="A1901"/>
+    </row>
+    <row r="1902" spans="1:1">
+      <c r="A1902"/>
+    </row>
+    <row r="1903" spans="1:1">
+      <c r="A1903"/>
+    </row>
+    <row r="1904" spans="1:1">
+      <c r="A1904"/>
+    </row>
+    <row r="1905" spans="1:1">
+      <c r="A1905"/>
+    </row>
+    <row r="1906" spans="1:1">
+      <c r="A1906"/>
+    </row>
+    <row r="1907" spans="1:1">
+      <c r="A1907"/>
+    </row>
+    <row r="1908" spans="1:1">
+      <c r="A1908"/>
+    </row>
+    <row r="1909" spans="1:1">
+      <c r="A1909"/>
+    </row>
+    <row r="1910" spans="1:1">
+      <c r="A1910"/>
+    </row>
+    <row r="1911" spans="1:1">
+      <c r="A1911"/>
+    </row>
+    <row r="1912" spans="1:1">
+      <c r="A1912"/>
+    </row>
+    <row r="1913" spans="1:1">
+      <c r="A1913"/>
+    </row>
+    <row r="1914" spans="1:1">
+      <c r="A1914"/>
+    </row>
+    <row r="1915" spans="1:1">
+      <c r="A1915"/>
+    </row>
+    <row r="1916" spans="1:1">
+      <c r="A1916"/>
+    </row>
+    <row r="1917" spans="1:1">
+      <c r="A1917"/>
+    </row>
+    <row r="1918" spans="1:1">
+      <c r="A1918"/>
+    </row>
+    <row r="1919" spans="1:1">
+      <c r="A1919"/>
+    </row>
+    <row r="1920" spans="1:1">
+      <c r="A1920"/>
+    </row>
+    <row r="1921" spans="1:1">
+      <c r="A1921"/>
+    </row>
+    <row r="1922" spans="1:1">
+      <c r="A1922"/>
+    </row>
+    <row r="1923" spans="1:1">
+      <c r="A1923"/>
+    </row>
+    <row r="1924" spans="1:1">
+      <c r="A1924"/>
+    </row>
+    <row r="1925" spans="1:1">
+      <c r="A1925"/>
+    </row>
+    <row r="1926" spans="1:1">
+      <c r="A1926"/>
+    </row>
+    <row r="1927" spans="1:1">
+      <c r="A1927"/>
+    </row>
+    <row r="1928" spans="1:1">
+      <c r="A1928"/>
+    </row>
+    <row r="1929" spans="1:1">
+      <c r="A1929"/>
+    </row>
+    <row r="1930" spans="1:1">
+      <c r="A1930"/>
+    </row>
+    <row r="1931" spans="1:1">
+      <c r="A1931"/>
+    </row>
+    <row r="1932" spans="1:1">
+      <c r="A1932"/>
+    </row>
+    <row r="1933" spans="1:1">
+      <c r="A1933"/>
+    </row>
+    <row r="1934" spans="1:1">
+      <c r="A1934"/>
+    </row>
+    <row r="1935" spans="1:1">
+      <c r="A1935"/>
+    </row>
+    <row r="1936" spans="1:1">
+      <c r="A1936"/>
+    </row>
+    <row r="1937" spans="1:1">
+      <c r="A1937"/>
+    </row>
+    <row r="1938" spans="1:1">
+      <c r="A1938"/>
+    </row>
+    <row r="1939" spans="1:1">
+      <c r="A1939"/>
+    </row>
+    <row r="1940" spans="1:1">
+      <c r="A1940"/>
+    </row>
+    <row r="1941" spans="1:1">
+      <c r="A1941"/>
+    </row>
+    <row r="1942" spans="1:1">
+      <c r="A1942"/>
+    </row>
+    <row r="1943" spans="1:1">
+      <c r="A1943"/>
+    </row>
+    <row r="1944" spans="1:1">
+      <c r="A1944"/>
+    </row>
+    <row r="1945" spans="1:1">
+      <c r="A1945"/>
+    </row>
+    <row r="1946" spans="1:1">
+      <c r="A1946"/>
+    </row>
+    <row r="1947" spans="1:1">
+      <c r="A1947"/>
+    </row>
+    <row r="1948" spans="1:1">
+      <c r="A1948"/>
+    </row>
+    <row r="1949" spans="1:1">
+      <c r="A1949"/>
+    </row>
+    <row r="1950" spans="1:1">
+      <c r="A1950"/>
+    </row>
+    <row r="1951" spans="1:1">
+      <c r="A1951"/>
+    </row>
+    <row r="1952" spans="1:1">
+      <c r="A1952"/>
+    </row>
+    <row r="1953" spans="1:1">
+      <c r="A1953"/>
+    </row>
+    <row r="1954" spans="1:1">
+      <c r="A1954"/>
+    </row>
+    <row r="1955" spans="1:1">
+      <c r="A1955"/>
+    </row>
+    <row r="1956" spans="1:1">
+      <c r="A1956"/>
+    </row>
+    <row r="1957" spans="1:1">
+      <c r="A1957"/>
+    </row>
+    <row r="1958" spans="1:1">
+      <c r="A1958"/>
+    </row>
+    <row r="1959" spans="1:1">
+      <c r="A1959"/>
+    </row>
+    <row r="1960" spans="1:1">
+      <c r="A1960"/>
+    </row>
+    <row r="1961" spans="1:1">
+      <c r="A1961"/>
+    </row>
+    <row r="1962" spans="1:1">
+      <c r="A1962"/>
+    </row>
+    <row r="1963" spans="1:1">
+      <c r="A1963"/>
+    </row>
+    <row r="1964" spans="1:1">
+      <c r="A1964"/>
+    </row>
+    <row r="1965" spans="1:1">
+      <c r="A1965"/>
+    </row>
+    <row r="1966" spans="1:1">
+      <c r="A1966"/>
+    </row>
+    <row r="1967" spans="1:1">
+      <c r="A1967"/>
+    </row>
+    <row r="1968" spans="1:1">
+      <c r="A1968"/>
+    </row>
+    <row r="1969" spans="1:1">
+      <c r="A1969"/>
+    </row>
+    <row r="1970" spans="1:1">
+      <c r="A1970"/>
+    </row>
+    <row r="1971" spans="1:1">
+      <c r="A1971"/>
+    </row>
+    <row r="1972" spans="1:1">
+      <c r="A1972"/>
+    </row>
+    <row r="1973" spans="1:1">
+      <c r="A1973"/>
+    </row>
+    <row r="1974" spans="1:1">
+      <c r="A1974"/>
+    </row>
+    <row r="1975" spans="1:1">
+      <c r="A1975"/>
+    </row>
+    <row r="1976" spans="1:1">
+      <c r="A1976"/>
+    </row>
+    <row r="1977" spans="1:1">
+      <c r="A1977"/>
+    </row>
+    <row r="1978" spans="1:1">
+      <c r="A1978"/>
+    </row>
+    <row r="1979" spans="1:1">
+      <c r="A1979"/>
+    </row>
+    <row r="1980" spans="1:1">
+      <c r="A1980"/>
+    </row>
+    <row r="1981" spans="1:1">
+      <c r="A1981"/>
+    </row>
+    <row r="1982" spans="1:1">
+      <c r="A1982"/>
+    </row>
+    <row r="1983" spans="1:1">
+      <c r="A1983"/>
+    </row>
+    <row r="1984" spans="1:1">
+      <c r="A1984"/>
+    </row>
+    <row r="1985" spans="1:1">
+      <c r="A1985"/>
+    </row>
+    <row r="1986" spans="1:1">
+      <c r="A1986"/>
+    </row>
+    <row r="1987" spans="1:1">
+      <c r="A1987"/>
+    </row>
+    <row r="1988" spans="1:1">
+      <c r="A1988"/>
+    </row>
+    <row r="1989" spans="1:1">
+      <c r="A1989"/>
+    </row>
+    <row r="1990" spans="1:1">
+      <c r="A1990"/>
+    </row>
+    <row r="1991" spans="1:1">
+      <c r="A1991"/>
+    </row>
+    <row r="1992" spans="1:1">
+      <c r="A1992"/>
+    </row>
+    <row r="1993" spans="1:1">
+      <c r="A1993"/>
+    </row>
+    <row r="1994" spans="1:1">
+      <c r="A1994"/>
+    </row>
+    <row r="1995" spans="1:1">
+      <c r="A1995"/>
+    </row>
+    <row r="1996" spans="1:1">
+      <c r="A1996"/>
+    </row>
+    <row r="1997" spans="1:1">
+      <c r="A1997"/>
+    </row>
+    <row r="1998" spans="1:1">
+      <c r="A1998"/>
+    </row>
+    <row r="1999" spans="1:1">
+      <c r="A1999"/>
+    </row>
+    <row r="2000" spans="1:1">
+      <c r="A2000"/>
+    </row>
+    <row r="2001" spans="1:1">
+      <c r="A2001"/>
+    </row>
+    <row r="2002" spans="1:1">
+      <c r="A2002"/>
+    </row>
+    <row r="2003" spans="1:1">
+      <c r="A2003"/>
+    </row>
+    <row r="2004" spans="1:1">
+      <c r="A2004"/>
+    </row>
+    <row r="2005" spans="1:1">
+      <c r="A2005"/>
+    </row>
+    <row r="2006" spans="1:1">
+      <c r="A2006"/>
+    </row>
+    <row r="2007" spans="1:1">
+      <c r="A2007"/>
+    </row>
+    <row r="2008" spans="1:1">
+      <c r="A2008"/>
+    </row>
+    <row r="2009" spans="1:1">
+      <c r="A2009"/>
+    </row>
+    <row r="2010" spans="1:1">
+      <c r="A2010"/>
+    </row>
+    <row r="2011" spans="1:1">
+      <c r="A2011"/>
+    </row>
+    <row r="2012" spans="1:1">
+      <c r="A2012"/>
+    </row>
+    <row r="2013" spans="1:1">
+      <c r="A2013"/>
+    </row>
+    <row r="2014" spans="1:1">
+      <c r="A2014"/>
+    </row>
+    <row r="2015" spans="1:1">
+      <c r="A2015"/>
+    </row>
+    <row r="2016" spans="1:1">
+      <c r="A2016"/>
+    </row>
+    <row r="2017" spans="1:1">
+      <c r="A2017"/>
+    </row>
+    <row r="2018" spans="1:1">
+      <c r="A2018"/>
+    </row>
+    <row r="2019" spans="1:1">
+      <c r="A2019"/>
+    </row>
+    <row r="2020" spans="1:1">
+      <c r="A2020"/>
+    </row>
+    <row r="2021" spans="1:1">
+      <c r="A2021"/>
+    </row>
+    <row r="2022" spans="1:1">
+      <c r="A2022"/>
+    </row>
+    <row r="2023" spans="1:1">
+      <c r="A2023"/>
+    </row>
+    <row r="2024" spans="1:1">
+      <c r="A2024"/>
+    </row>
+    <row r="2025" spans="1:1">
+      <c r="A2025"/>
+    </row>
+    <row r="2026" spans="1:1">
+      <c r="A2026"/>
+    </row>
+    <row r="2027" spans="1:1">
+      <c r="A2027"/>
+    </row>
+    <row r="2028" spans="1:1">
+      <c r="A2028"/>
+    </row>
+    <row r="2029" spans="1:1">
+      <c r="A2029"/>
+    </row>
+    <row r="2030" spans="1:1">
+      <c r="A2030"/>
+    </row>
+    <row r="2031" spans="1:1">
+      <c r="A2031"/>
+    </row>
+    <row r="2032" spans="1:1">
+      <c r="A2032"/>
+    </row>
+    <row r="2033" spans="1:1">
+      <c r="A2033"/>
+    </row>
+    <row r="2034" spans="1:1">
+      <c r="A2034"/>
+    </row>
+    <row r="2035" spans="1:1">
+      <c r="A2035"/>
+    </row>
+    <row r="2036" spans="1:1">
+      <c r="A2036"/>
+    </row>
+    <row r="2037" spans="1:1">
+      <c r="A2037"/>
+    </row>
+    <row r="2038" spans="1:1">
+      <c r="A2038"/>
+    </row>
+    <row r="2039" spans="1:1">
+      <c r="A2039"/>
+    </row>
+    <row r="2040" spans="1:1">
+      <c r="A2040"/>
+    </row>
+    <row r="2041" spans="1:1">
+      <c r="A2041"/>
+    </row>
+    <row r="2042" spans="1:1">
+      <c r="A2042"/>
+    </row>
+    <row r="2043" spans="1:1">
+      <c r="A2043"/>
+    </row>
+    <row r="2044" spans="1:1">
+      <c r="A2044"/>
+    </row>
+    <row r="2045" spans="1:1">
+      <c r="A2045"/>
+    </row>
+    <row r="2046" spans="1:1">
+      <c r="A2046"/>
+    </row>
+    <row r="2047" spans="1:1">
+      <c r="A2047"/>
+    </row>
+    <row r="2048" spans="1:1">
+      <c r="A2048"/>
+    </row>
+    <row r="2049" spans="1:1">
+      <c r="A2049"/>
+    </row>
+    <row r="2050" spans="1:1">
+      <c r="A2050"/>
+    </row>
+    <row r="2051" spans="1:1">
+      <c r="A2051"/>
+    </row>
+    <row r="2052" spans="1:1">
+      <c r="A2052"/>
+    </row>
+    <row r="2053" spans="1:1">
+      <c r="A2053"/>
+    </row>
+    <row r="2054" spans="1:1">
+      <c r="A2054"/>
+    </row>
+    <row r="2055" spans="1:1">
+      <c r="A2055"/>
+    </row>
+    <row r="2056" spans="1:1">
+      <c r="A2056"/>
+    </row>
+    <row r="2057" spans="1:1">
+      <c r="A2057"/>
+    </row>
+    <row r="2058" spans="1:1">
+      <c r="A2058"/>
+    </row>
+    <row r="2059" spans="1:1">
+      <c r="A2059"/>
+    </row>
+    <row r="2060" spans="1:1">
+      <c r="A2060"/>
+    </row>
+    <row r="2061" spans="1:1">
+      <c r="A2061"/>
+    </row>
+    <row r="2062" spans="1:1">
+      <c r="A2062"/>
+    </row>
+    <row r="2063" spans="1:1">
+      <c r="A2063"/>
+    </row>
+    <row r="2064" spans="1:1">
+      <c r="A2064"/>
+    </row>
+    <row r="2065" spans="1:1">
+      <c r="A2065"/>
+    </row>
+    <row r="2066" spans="1:1">
+      <c r="A2066"/>
+    </row>
+    <row r="2067" spans="1:1">
+      <c r="A2067"/>
+    </row>
+    <row r="2068" spans="1:1">
+      <c r="A2068"/>
+    </row>
+    <row r="2069" spans="1:1">
+      <c r="A2069"/>
+    </row>
+    <row r="2070" spans="1:1">
+      <c r="A2070"/>
+    </row>
+    <row r="2071" spans="1:1">
+      <c r="A2071"/>
+    </row>
+    <row r="2072" spans="1:1">
+      <c r="A2072"/>
+    </row>
+    <row r="2073" spans="1:1">
+      <c r="A2073"/>
+    </row>
+    <row r="2074" spans="1:1">
+      <c r="A2074"/>
+    </row>
+    <row r="2075" spans="1:1">
+      <c r="A2075"/>
+    </row>
+    <row r="2076" spans="1:1">
+      <c r="A2076"/>
+    </row>
+    <row r="2077" spans="1:1">
+      <c r="A2077"/>
+    </row>
+    <row r="2078" spans="1:1">
+      <c r="A2078"/>
+    </row>
+    <row r="2079" spans="1:1">
+      <c r="A2079"/>
+    </row>
+    <row r="2080" spans="1:1">
+      <c r="A2080"/>
+    </row>
+    <row r="2081" spans="1:1">
+      <c r="A2081"/>
+    </row>
+    <row r="2082" spans="1:1">
+      <c r="A2082"/>
+    </row>
+    <row r="2083" spans="1:1">
+      <c r="A2083"/>
+    </row>
+    <row r="2084" spans="1:1">
+      <c r="A2084"/>
+    </row>
+    <row r="2085" spans="1:1">
+      <c r="A2085"/>
+    </row>
+    <row r="2086" spans="1:1">
+      <c r="A2086"/>
+    </row>
+    <row r="2087" spans="1:1">
+      <c r="A2087"/>
+    </row>
+    <row r="2088" spans="1:1">
+      <c r="A2088"/>
+    </row>
+    <row r="2089" spans="1:1">
+      <c r="A2089"/>
+    </row>
+    <row r="2090" spans="1:1">
+      <c r="A2090"/>
+    </row>
+    <row r="2091" spans="1:1">
+      <c r="A2091"/>
+    </row>
+    <row r="2092" spans="1:1">
+      <c r="A2092"/>
+    </row>
+    <row r="2093" spans="1:1">
+      <c r="A2093"/>
+    </row>
+    <row r="2094" spans="1:1">
+      <c r="A2094"/>
+    </row>
+    <row r="2095" spans="1:1">
+      <c r="A2095"/>
+    </row>
+    <row r="2096" spans="1:1">
+      <c r="A2096"/>
+    </row>
+    <row r="2097" spans="1:1">
+      <c r="A2097"/>
+    </row>
+    <row r="2098" spans="1:1">
+      <c r="A2098"/>
+    </row>
+    <row r="2099" spans="1:1">
+      <c r="A2099"/>
+    </row>
+    <row r="2100" spans="1:1">
+      <c r="A2100"/>
+    </row>
+    <row r="2101" spans="1:1">
+      <c r="A2101"/>
+    </row>
+    <row r="2102" spans="1:1">
+      <c r="A2102"/>
+    </row>
+    <row r="2103" spans="1:1">
+      <c r="A2103"/>
+    </row>
+    <row r="2104" spans="1:1">
+      <c r="A2104"/>
+    </row>
+    <row r="2105" spans="1:1">
+      <c r="A2105"/>
+    </row>
+    <row r="2106" spans="1:1">
+      <c r="A2106"/>
+    </row>
+    <row r="2107" spans="1:1">
+      <c r="A2107"/>
+    </row>
+    <row r="2108" spans="1:1">
+      <c r="A2108"/>
+    </row>
+    <row r="2109" spans="1:1">
+      <c r="A2109"/>
+    </row>
+    <row r="2110" spans="1:1">
+      <c r="A2110"/>
+    </row>
+    <row r="2111" spans="1:1">
+      <c r="A2111"/>
+    </row>
+    <row r="2112" spans="1:1">
+      <c r="A2112"/>
+    </row>
+    <row r="2113" spans="1:1">
+      <c r="A2113"/>
+    </row>
+    <row r="2114" spans="1:1">
+      <c r="A2114"/>
+    </row>
+    <row r="2115" spans="1:1">
+      <c r="A2115"/>
+    </row>
+    <row r="2116" spans="1:1">
+      <c r="A2116"/>
+    </row>
+    <row r="2117" spans="1:1">
+      <c r="A2117"/>
+    </row>
+    <row r="2118" spans="1:1">
+      <c r="A2118"/>
+    </row>
+    <row r="2119" spans="1:1">
+      <c r="A2119"/>
+    </row>
+    <row r="2120" spans="1:1">
+      <c r="A2120"/>
+    </row>
+    <row r="2121" spans="1:1">
+      <c r="A2121"/>
+    </row>
+    <row r="2122" spans="1:1">
+      <c r="A2122"/>
+    </row>
+    <row r="2123" spans="1:1">
+      <c r="A2123"/>
+    </row>
+    <row r="2124" spans="1:1">
+      <c r="A2124"/>
+    </row>
+    <row r="2125" spans="1:1">
+      <c r="A2125"/>
+    </row>
+    <row r="2126" spans="1:1">
+      <c r="A2126"/>
+    </row>
+    <row r="2127" spans="1:1">
+      <c r="A2127"/>
+    </row>
+    <row r="2128" spans="1:1">
+      <c r="A2128"/>
+    </row>
+    <row r="2129" spans="1:1">
+      <c r="A2129"/>
+    </row>
+    <row r="2130" spans="1:1">
+      <c r="A2130"/>
+    </row>
+    <row r="2131" spans="1:1">
+      <c r="A2131"/>
+    </row>
+    <row r="2132" spans="1:1">
+      <c r="A2132"/>
+    </row>
+    <row r="2133" spans="1:1">
+      <c r="A2133"/>
+    </row>
+    <row r="2134" spans="1:1">
+      <c r="A2134"/>
+    </row>
+    <row r="2135" spans="1:1">
+      <c r="A2135"/>
+    </row>
+    <row r="2136" spans="1:1">
+      <c r="A2136"/>
+    </row>
+    <row r="2137" spans="1:1">
+      <c r="A2137"/>
+    </row>
+    <row r="2138" spans="1:1">
+      <c r="A2138"/>
+    </row>
+    <row r="2139" spans="1:1">
+      <c r="A2139"/>
+    </row>
+    <row r="2140" spans="1:1">
+      <c r="A2140"/>
+    </row>
+    <row r="2141" spans="1:1">
+      <c r="A2141"/>
+    </row>
+    <row r="2142" spans="1:1">
+      <c r="A2142"/>
+    </row>
+    <row r="2143" spans="1:1">
+      <c r="A2143"/>
+    </row>
+    <row r="2144" spans="1:1">
+      <c r="A2144"/>
+    </row>
+    <row r="2145" spans="1:1">
+      <c r="A2145"/>
+    </row>
+    <row r="2146" spans="1:1">
+      <c r="A2146"/>
+    </row>
+    <row r="2147" spans="1:1">
+      <c r="A2147"/>
+    </row>
+    <row r="2148" spans="1:1">
+      <c r="A2148"/>
+    </row>
+    <row r="2149" spans="1:1">
+      <c r="A2149"/>
+    </row>
+    <row r="2150" spans="1:1">
+      <c r="A2150"/>
+    </row>
+    <row r="2151" spans="1:1">
+      <c r="A2151"/>
+    </row>
+    <row r="2152" spans="1:1">
+      <c r="A2152"/>
+    </row>
+    <row r="2153" spans="1:1">
+      <c r="A2153"/>
+    </row>
+    <row r="2154" spans="1:1">
+      <c r="A2154"/>
+    </row>
+    <row r="2155" spans="1:1">
+      <c r="A2155"/>
+    </row>
+    <row r="2156" spans="1:1">
+      <c r="A2156"/>
+    </row>
+    <row r="2157" spans="1:1">
+      <c r="A2157"/>
+    </row>
+    <row r="2158" spans="1:1">
+      <c r="A2158"/>
+    </row>
+    <row r="2159" spans="1:1">
+      <c r="A2159"/>
+    </row>
+    <row r="2160" spans="1:1">
+      <c r="A2160"/>
+    </row>
+    <row r="2161" spans="1:1">
+      <c r="A2161"/>
+    </row>
+    <row r="2162" spans="1:1">
+      <c r="A2162"/>
+    </row>
+    <row r="2163" spans="1:1">
+      <c r="A2163"/>
+    </row>
+    <row r="2164" spans="1:1">
+      <c r="A2164"/>
+    </row>
+    <row r="2165" spans="1:1">
+      <c r="A2165"/>
+    </row>
+    <row r="2166" spans="1:1">
+      <c r="A2166"/>
+    </row>
+    <row r="2167" spans="1:1">
+      <c r="A2167"/>
+    </row>
+    <row r="2168" spans="1:1">
+      <c r="A2168"/>
+    </row>
+    <row r="2169" spans="1:1">
+      <c r="A2169"/>
+    </row>
+    <row r="2170" spans="1:1">
+      <c r="A2170"/>
+    </row>
+    <row r="2171" spans="1:1">
+      <c r="A2171"/>
+    </row>
+    <row r="2172" spans="1:1">
+      <c r="A2172"/>
+    </row>
+    <row r="2173" spans="1:1">
+      <c r="A2173"/>
+    </row>
+    <row r="2174" spans="1:1">
+      <c r="A2174"/>
+    </row>
+    <row r="2175" spans="1:1">
+      <c r="A2175"/>
+    </row>
+    <row r="2176" spans="1:1">
+      <c r="A2176"/>
+    </row>
+    <row r="2177" spans="1:1">
+      <c r="A2177"/>
+    </row>
+    <row r="2178" spans="1:1">
+      <c r="A2178"/>
+    </row>
+    <row r="2179" spans="1:1">
+      <c r="A2179"/>
+    </row>
+    <row r="2180" spans="1:1">
+      <c r="A2180"/>
+    </row>
+    <row r="2181" spans="1:1">
+      <c r="A2181"/>
+    </row>
+    <row r="2182" spans="1:1">
+      <c r="A2182"/>
+    </row>
+    <row r="2183" spans="1:1">
+      <c r="A2183"/>
+    </row>
+    <row r="2184" spans="1:1">
+      <c r="A2184"/>
+    </row>
+    <row r="2185" spans="1:1">
+      <c r="A2185"/>
+    </row>
+    <row r="2186" spans="1:1">
+      <c r="A2186"/>
+    </row>
+    <row r="2187" spans="1:1">
+      <c r="A2187"/>
+    </row>
+    <row r="2188" spans="1:1">
+      <c r="A2188"/>
+    </row>
+    <row r="2189" spans="1:1">
+      <c r="A2189"/>
+    </row>
+    <row r="2190" spans="1:1">
+      <c r="A2190"/>
+    </row>
+    <row r="2191" spans="1:1">
+      <c r="A2191"/>
+    </row>
+    <row r="2192" spans="1:1">
+      <c r="A2192"/>
+    </row>
+    <row r="2193" spans="1:1">
+      <c r="A2193"/>
+    </row>
+    <row r="2194" spans="1:1">
+      <c r="A2194"/>
+    </row>
+    <row r="2195" spans="1:1">
+      <c r="A2195"/>
+    </row>
+    <row r="2196" spans="1:1">
+      <c r="A2196"/>
+    </row>
+    <row r="2197" spans="1:1">
+      <c r="A2197"/>
+    </row>
+    <row r="2198" spans="1:1">
+      <c r="A2198"/>
+    </row>
+    <row r="2199" spans="1:1">
+      <c r="A2199"/>
+    </row>
+    <row r="2200" spans="1:1">
+      <c r="A2200"/>
+    </row>
+    <row r="2201" spans="1:1">
+      <c r="A2201"/>
+    </row>
+    <row r="2202" spans="1:1">
+      <c r="A2202"/>
+    </row>
+    <row r="2203" spans="1:1">
+      <c r="A2203"/>
+    </row>
+    <row r="2204" spans="1:1">
+      <c r="A2204"/>
+    </row>
+    <row r="2205" spans="1:1">
+      <c r="A2205"/>
+    </row>
+    <row r="2206" spans="1:1">
+      <c r="A2206"/>
+    </row>
+    <row r="2207" spans="1:1">
+      <c r="A2207"/>
+    </row>
+    <row r="2208" spans="1:1">
+      <c r="A2208"/>
+    </row>
+    <row r="2209" spans="1:1">
+      <c r="A2209"/>
+    </row>
+    <row r="2210" spans="1:1">
+      <c r="A2210"/>
+    </row>
+    <row r="2211" spans="1:1">
+      <c r="A2211"/>
+    </row>
+    <row r="2212" spans="1:1">
+      <c r="A2212"/>
+    </row>
+    <row r="2213" spans="1:1">
+      <c r="A2213"/>
+    </row>
+    <row r="2214" spans="1:1">
+      <c r="A2214"/>
+    </row>
+    <row r="2215" spans="1:1">
+      <c r="A2215"/>
+    </row>
+    <row r="2216" spans="1:1">
+      <c r="A2216"/>
+    </row>
+    <row r="2217" spans="1:1">
+      <c r="A2217"/>
+    </row>
+    <row r="2218" spans="1:1">
+      <c r="A2218"/>
+    </row>
+    <row r="2219" spans="1:1">
+      <c r="A2219"/>
+    </row>
+    <row r="2220" spans="1:1">
+      <c r="A2220"/>
+    </row>
+    <row r="2221" spans="1:1">
+      <c r="A2221"/>
+    </row>
+    <row r="2222" spans="1:1">
+      <c r="A2222"/>
+    </row>
+    <row r="2223" spans="1:1">
+      <c r="A2223"/>
+    </row>
+    <row r="2224" spans="1:1">
+      <c r="A2224"/>
+    </row>
+    <row r="2225" spans="1:1">
+      <c r="A2225"/>
+    </row>
+    <row r="2226" spans="1:1">
+      <c r="A2226"/>
+    </row>
+    <row r="2227" spans="1:1">
+      <c r="A2227"/>
+    </row>
+    <row r="2228" spans="1:1">
+      <c r="A2228"/>
+    </row>
+    <row r="2229" spans="1:1">
+      <c r="A2229"/>
+    </row>
+    <row r="2230" spans="1:1">
+      <c r="A2230"/>
+    </row>
+    <row r="2231" spans="1:1">
+      <c r="A2231"/>
+    </row>
+    <row r="2232" spans="1:1">
+      <c r="A2232"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
